--- a/2.Excel/hands-on/5.Formatacao/2.Formatacao_tabelas_design.xlsx
+++ b/2.Excel/hands-on/5.Formatacao/2.Formatacao_tabelas_design.xlsx
@@ -8,15 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\hands-on\5.Formatacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C93AC50-87F4-470F-8466-99B0F4FBED38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC25E65-FE24-4B90-853E-F0156E060D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F1DCBCDB-AE2B-43B4-B740-43329A64DDA9}"/>
+    <workbookView xWindow="10944" yWindow="0" windowWidth="12192" windowHeight="12792" activeTab="1" xr2:uid="{F1DCBCDB-AE2B-43B4-B740-43329A64DDA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha 2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="SegmentaçãodeDados_Produto">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_Vendedor">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId3"/>
+        <x14:slicerCache r:id="rId4"/>
+      </x15:slicerCaches>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -34,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="17">
   <si>
     <t>Vendedor</t>
   </si>
@@ -111,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -119,11 +133,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -134,11 +259,358 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="29">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14999847407452621"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -232,14 +704,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo Filipe" pivot="0" count="4" xr9:uid="{11B05903-5BC3-4AB7-9D57-ECF62AAA37AC}">
-      <tableStyleElement type="wholeTable" dxfId="9"/>
-      <tableStyleElement type="headerRow" dxfId="8"/>
-      <tableStyleElement type="totalRow" dxfId="7"/>
-      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="totalRow" dxfId="18"/>
+      <tableStyleElement type="secondRowStripe" dxfId="17"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFBFBFBF"/>
       <color rgb="FFCC0000"/>
     </mruColors>
   </colors>
@@ -254,27 +727,241 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>137161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Vendedor">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B3515C-FC43-8C39-E1CE-BE5539F6CD29}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Vendedor"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6126480" y="320041"/>
+              <a:ext cx="2430780" cy="1158240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa um slicer da tabela. As segmentações de dados da tabela não são suportadas nesta versão do Excel.
+Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho foi salva no Excel 2007 ou anterior, a segmentação de dados não pode ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Produto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{169EBC68-E803-4FCF-59D5-099ED047C614}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Produto"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6134100" y="1577341"/>
+              <a:ext cx="1828800" cy="1714499"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa um slicer da tabela. As segmentações de dados da tabela não são suportadas nesta versão do Excel.
+Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho foi salva no Excel 2007 ou anterior, a segmentação de dados não pode ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Vendedor" xr10:uid="{5E85D36D-DD1D-4734-9A88-1F3D00FEE870}" sourceName="Vendedor">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="1"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Produto" xr10:uid="{262B8A16-BAA1-48FB-84F3-05BAC897A6BB}" sourceName="Produto">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="2"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Vendedor" xr10:uid="{69638871-0F39-429A-8C3C-73F32656277B}" cache="SegmentaçãodeDados_Vendedor" caption="Vendedor" columnCount="2" style="SlicerStyleDark2" rowHeight="234950"/>
+  <slicer name="Produto" xr10:uid="{2E7F3459-EDF2-444B-B338-262124B7F9C3}" cache="SegmentaçãodeDados_Produto" caption="Produto" rowHeight="234950"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD95A7C0-8563-4822-9AD5-4F710BF18291}" name="Vendas" displayName="Vendas" ref="A1:F299" headerRowDxfId="10" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD95A7C0-8563-4822-9AD5-4F710BF18291}" name="Vendas" displayName="Vendas" ref="A1:F299" headerRowDxfId="21" dataDxfId="22">
   <autoFilter ref="A1:F299" xr:uid="{AD95A7C0-8563-4822-9AD5-4F710BF18291}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="0" hiddenButton="1">
+      <filters>
+        <filter val="Jéssica Gomes"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1" hiddenButton="1">
+      <filters>
+        <filter val="Boné Giga"/>
+        <filter val="Calça Jeep"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8D7000ED-E307-4301-8072-F66A6E7EB40C}" name="Vendedor" totalsRowLabel="Total" dataDxfId="17" totalsRowDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{0EFD3660-A781-4D20-AD43-9EB5AAFC73EA}" name="Produto" dataDxfId="16" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{AAFA513E-A188-4F2F-88A0-23423E42ADAE}" name="Data" dataDxfId="15" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{3B872EF6-DB56-4E75-B289-E0278C730F3A}" name="Qtd." dataDxfId="14" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{84394696-C674-475F-98B6-6000FF74BF64}" name="ValorProduto" dataDxfId="13" totalsRowDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{6074D1C9-160B-4889-9979-A616A9AA4A91}" name="ValorTotal" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="5">
+    <tableColumn id="1" xr3:uid="{8D7000ED-E307-4301-8072-F66A6E7EB40C}" name="Vendedor" totalsRowLabel="Total" dataDxfId="28" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{0EFD3660-A781-4D20-AD43-9EB5AAFC73EA}" name="Produto" dataDxfId="27" totalsRowDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{AAFA513E-A188-4F2F-88A0-23423E42ADAE}" name="Data" dataDxfId="26" totalsRowDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{3B872EF6-DB56-4E75-B289-E0278C730F3A}" name="Qtd." dataDxfId="25" totalsRowDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{84394696-C674-475F-98B6-6000FF74BF64}" name="ValorProduto" dataDxfId="24" totalsRowDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{6074D1C9-160B-4889-9979-A616A9AA4A91}" name="ValorTotal" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="16">
       <calculatedColumnFormula>E2*D2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="Estilo Filipe" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D053194E-DAFA-4B3A-9E41-5FA715017BF4}" name="Vendas_2" displayName="Vendas_2" ref="A1:F300" totalsRowShown="0" headerRowDxfId="7" dataDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:F300" xr:uid="{D053194E-DAFA-4B3A-9E41-5FA715017BF4}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{4C9EB37C-CD92-4D0D-A861-C09861548A69}" name="Vendedor" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{6713771F-D20D-49CA-807C-A63B587FC81C}" name="Produto" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{DF59A20A-B9EA-40CA-A9BC-6402525DA9B4}" name="Data" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{91B3CF9E-3BB3-466A-9AC0-D4BA80A61F85}" name="Qtd." dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{81D4B8C2-BC4E-42A0-AFAB-8B1C64A70639}" name="ValorProduto" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{181A5476-246D-47B1-920E-8ECAC6F1CA41}" name="ValorTotal" dataDxfId="1">
+      <calculatedColumnFormula>E2*D2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -577,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B57C723-6BDD-4285-A449-C142A2C89BA1}">
   <dimension ref="A1:F299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,7 +1295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -629,7 +1316,7 @@
         <v>119.69999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -650,7 +1337,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -671,7 +1358,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -692,7 +1379,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -713,7 +1400,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -734,7 +1421,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -755,7 +1442,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -776,7 +1463,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,7 +1484,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -818,7 +1505,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -860,7 +1547,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -881,7 +1568,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,7 +1589,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -923,7 +1610,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -944,7 +1631,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,7 +1652,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -986,7 +1673,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -1007,7 +1694,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1028,7 +1715,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1070,7 +1757,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1091,7 +1778,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -1112,7 +1799,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,7 +1820,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,7 +1841,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1196,7 +1883,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,7 +1904,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -1238,7 +1925,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -1259,7 +1946,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1280,7 +1967,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
@@ -1301,7 +1988,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +2009,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -1364,7 +2051,7 @@
         <v>119.69999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -1385,7 +2072,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -1406,7 +2093,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -1427,7 +2114,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>11</v>
       </c>
@@ -1448,7 +2135,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -1469,7 +2156,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -1490,7 +2177,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
@@ -1511,7 +2198,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
@@ -1532,7 +2219,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -1553,7 +2240,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -1574,7 +2261,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
@@ -1595,7 +2282,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -1616,7 +2303,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>13</v>
       </c>
@@ -1637,7 +2324,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -1658,7 +2345,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>13</v>
       </c>
@@ -1700,7 +2387,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
@@ -1721,7 +2408,7 @@
         <v>119.69999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>11</v>
       </c>
@@ -1742,7 +2429,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>8</v>
       </c>
@@ -1763,7 +2450,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>11</v>
       </c>
@@ -1784,7 +2471,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
@@ -1805,7 +2492,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>8</v>
       </c>
@@ -1826,7 +2513,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>13</v>
       </c>
@@ -1847,7 +2534,7 @@
         <v>179.7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>11</v>
       </c>
@@ -1868,7 +2555,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>11</v>
       </c>
@@ -1889,7 +2576,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -1910,7 +2597,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>8</v>
       </c>
@@ -1931,7 +2618,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -1952,7 +2639,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -1973,7 +2660,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -1994,7 +2681,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>13</v>
       </c>
@@ -2036,7 +2723,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -2078,7 +2765,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>8</v>
       </c>
@@ -2099,7 +2786,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>8</v>
       </c>
@@ -2120,7 +2807,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>13</v>
       </c>
@@ -2141,7 +2828,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -2162,7 +2849,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -2183,7 +2870,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
@@ -2204,7 +2891,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -2225,7 +2912,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>8</v>
       </c>
@@ -2246,7 +2933,7 @@
         <v>119.69999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>13</v>
       </c>
@@ -2267,7 +2954,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>8</v>
       </c>
@@ -2288,7 +2975,7 @@
         <v>119.69999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>8</v>
       </c>
@@ -2309,7 +2996,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>11</v>
       </c>
@@ -2351,7 +3038,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -2372,7 +3059,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -2393,7 +3080,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>11</v>
       </c>
@@ -2414,7 +3101,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -2435,7 +3122,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>8</v>
       </c>
@@ -2456,7 +3143,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -2477,7 +3164,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>11</v>
       </c>
@@ -2498,7 +3185,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>13</v>
       </c>
@@ -2519,7 +3206,7 @@
         <v>179.7</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>8</v>
       </c>
@@ -2540,7 +3227,7 @@
         <v>119.69999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>13</v>
       </c>
@@ -2561,7 +3248,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>13</v>
       </c>
@@ -2603,7 +3290,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>8</v>
       </c>
@@ -2624,7 +3311,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
@@ -2645,7 +3332,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>11</v>
       </c>
@@ -2666,7 +3353,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>6</v>
       </c>
@@ -2687,7 +3374,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>11</v>
       </c>
@@ -2708,7 +3395,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>8</v>
       </c>
@@ -2729,7 +3416,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>11</v>
       </c>
@@ -2750,7 +3437,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>13</v>
       </c>
@@ -2771,7 +3458,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>6</v>
       </c>
@@ -2792,7 +3479,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>11</v>
       </c>
@@ -2813,7 +3500,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>13</v>
       </c>
@@ -2834,7 +3521,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>11</v>
       </c>
@@ -2855,7 +3542,7 @@
         <v>179.7</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>8</v>
       </c>
@@ -2876,7 +3563,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>6</v>
       </c>
@@ -2897,7 +3584,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>6</v>
       </c>
@@ -2918,7 +3605,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>6</v>
       </c>
@@ -2939,7 +3626,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>6</v>
       </c>
@@ -2960,7 +3647,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>13</v>
       </c>
@@ -2981,7 +3668,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>11</v>
       </c>
@@ -3002,7 +3689,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>11</v>
       </c>
@@ -3023,7 +3710,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>8</v>
       </c>
@@ -3044,7 +3731,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>6</v>
       </c>
@@ -3065,7 +3752,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>6</v>
       </c>
@@ -3086,7 +3773,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>8</v>
       </c>
@@ -3107,7 +3794,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>6</v>
       </c>
@@ -3128,7 +3815,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>11</v>
       </c>
@@ -3149,7 +3836,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>6</v>
       </c>
@@ -3170,7 +3857,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>8</v>
       </c>
@@ -3191,7 +3878,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>13</v>
       </c>
@@ -3212,7 +3899,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>13</v>
       </c>
@@ -3233,7 +3920,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>6</v>
       </c>
@@ -3254,7 +3941,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>13</v>
       </c>
@@ -3275,7 +3962,7 @@
         <v>179.7</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>8</v>
       </c>
@@ -3296,7 +3983,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>13</v>
       </c>
@@ -3317,7 +4004,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>11</v>
       </c>
@@ -3338,7 +4025,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>11</v>
       </c>
@@ -3359,7 +4046,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>6</v>
       </c>
@@ -3380,7 +4067,7 @@
         <v>119.69999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>6</v>
       </c>
@@ -3401,7 +4088,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>6</v>
       </c>
@@ -3422,7 +4109,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>11</v>
       </c>
@@ -3443,7 +4130,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
@@ -3464,7 +4151,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>13</v>
       </c>
@@ -3485,7 +4172,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>8</v>
       </c>
@@ -3506,7 +4193,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>11</v>
       </c>
@@ -3527,7 +4214,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>6</v>
       </c>
@@ -3548,7 +4235,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>6</v>
       </c>
@@ -3569,7 +4256,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>8</v>
       </c>
@@ -3590,7 +4277,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>11</v>
       </c>
@@ -3611,7 +4298,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>8</v>
       </c>
@@ -3632,7 +4319,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>13</v>
       </c>
@@ -3653,7 +4340,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>11</v>
       </c>
@@ -3674,7 +4361,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>8</v>
       </c>
@@ -3695,7 +4382,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>6</v>
       </c>
@@ -3716,7 +4403,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>13</v>
       </c>
@@ -3737,7 +4424,7 @@
         <v>179.7</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>13</v>
       </c>
@@ -3758,7 +4445,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>8</v>
       </c>
@@ -3779,7 +4466,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>13</v>
       </c>
@@ -3821,7 +4508,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>11</v>
       </c>
@@ -3842,7 +4529,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
@@ -3863,7 +4550,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>8</v>
       </c>
@@ -3884,7 +4571,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>6</v>
       </c>
@@ -3905,7 +4592,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>11</v>
       </c>
@@ -3926,7 +4613,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>6</v>
       </c>
@@ -3947,7 +4634,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>11</v>
       </c>
@@ -3968,7 +4655,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>11</v>
       </c>
@@ -4010,7 +4697,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>8</v>
       </c>
@@ -4031,7 +4718,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>8</v>
       </c>
@@ -4052,7 +4739,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>6</v>
       </c>
@@ -4073,7 +4760,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>11</v>
       </c>
@@ -4094,7 +4781,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>13</v>
       </c>
@@ -4115,7 +4802,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>8</v>
       </c>
@@ -4136,7 +4823,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>6</v>
       </c>
@@ -4157,7 +4844,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>8</v>
       </c>
@@ -4178,7 +4865,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>11</v>
       </c>
@@ -4199,7 +4886,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>6</v>
       </c>
@@ -4220,7 +4907,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>11</v>
       </c>
@@ -4241,7 +4928,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>8</v>
       </c>
@@ -4262,7 +4949,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>13</v>
       </c>
@@ -4283,7 +4970,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>8</v>
       </c>
@@ -4304,7 +4991,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>11</v>
       </c>
@@ -4325,7 +5012,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>6</v>
       </c>
@@ -4367,7 +5054,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>6</v>
       </c>
@@ -4388,7 +5075,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>8</v>
       </c>
@@ -4409,7 +5096,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>8</v>
       </c>
@@ -4430,7 +5117,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>8</v>
       </c>
@@ -4451,7 +5138,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>6</v>
       </c>
@@ -4472,7 +5159,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>6</v>
       </c>
@@ -4493,7 +5180,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>11</v>
       </c>
@@ -4514,7 +5201,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>11</v>
       </c>
@@ -4535,7 +5222,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>8</v>
       </c>
@@ -4556,7 +5243,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>6</v>
       </c>
@@ -4577,7 +5264,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>11</v>
       </c>
@@ -4598,7 +5285,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>8</v>
       </c>
@@ -4619,7 +5306,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>8</v>
       </c>
@@ -4640,7 +5327,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>6</v>
       </c>
@@ -4682,7 +5369,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>11</v>
       </c>
@@ -4703,7 +5390,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>11</v>
       </c>
@@ -4724,7 +5411,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>13</v>
       </c>
@@ -4745,7 +5432,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>11</v>
       </c>
@@ -4766,7 +5453,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>13</v>
       </c>
@@ -4787,7 +5474,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>8</v>
       </c>
@@ -4808,7 +5495,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>11</v>
       </c>
@@ -4829,7 +5516,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>6</v>
       </c>
@@ -4850,7 +5537,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>13</v>
       </c>
@@ -4892,7 +5579,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>6</v>
       </c>
@@ -4913,7 +5600,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>8</v>
       </c>
@@ -4934,7 +5621,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>8</v>
       </c>
@@ -4976,7 +5663,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>6</v>
       </c>
@@ -4997,7 +5684,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>11</v>
       </c>
@@ -5018,7 +5705,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>6</v>
       </c>
@@ -5039,7 +5726,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>11</v>
       </c>
@@ -5060,7 +5747,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>13</v>
       </c>
@@ -5081,7 +5768,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>11</v>
       </c>
@@ -5102,7 +5789,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>8</v>
       </c>
@@ -5123,7 +5810,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>6</v>
       </c>
@@ -5144,7 +5831,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>8</v>
       </c>
@@ -5186,7 +5873,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>8</v>
       </c>
@@ -5207,7 +5894,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>11</v>
       </c>
@@ -5228,7 +5915,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>6</v>
       </c>
@@ -5249,7 +5936,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>8</v>
       </c>
@@ -5270,7 +5957,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>11</v>
       </c>
@@ -5291,7 +5978,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>11</v>
       </c>
@@ -5312,7 +5999,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>11</v>
       </c>
@@ -5354,7 +6041,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>8</v>
       </c>
@@ -5375,7 +6062,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>8</v>
       </c>
@@ -5396,7 +6083,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>11</v>
       </c>
@@ -5417,7 +6104,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>8</v>
       </c>
@@ -5438,7 +6125,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>11</v>
       </c>
@@ -5459,7 +6146,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>6</v>
       </c>
@@ -5480,7 +6167,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>11</v>
       </c>
@@ -5501,7 +6188,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>6</v>
       </c>
@@ -5522,7 +6209,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>11</v>
       </c>
@@ -5543,7 +6230,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>6</v>
       </c>
@@ -5564,7 +6251,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>8</v>
       </c>
@@ -5585,7 +6272,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>11</v>
       </c>
@@ -5606,7 +6293,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>13</v>
       </c>
@@ -5627,7 +6314,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>13</v>
       </c>
@@ -5648,7 +6335,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>6</v>
       </c>
@@ -5669,7 +6356,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>6</v>
       </c>
@@ -5690,7 +6377,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>6</v>
       </c>
@@ -5711,7 +6398,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>8</v>
       </c>
@@ -5732,7 +6419,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>6</v>
       </c>
@@ -5753,7 +6440,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>8</v>
       </c>
@@ -5774,7 +6461,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>6</v>
       </c>
@@ -5795,7 +6482,7 @@
         <v>299.5</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>6</v>
       </c>
@@ -5816,7 +6503,7 @@
         <v>119.69999999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>13</v>
       </c>
@@ -5837,7 +6524,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>13</v>
       </c>
@@ -5858,7 +6545,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>6</v>
       </c>
@@ -5879,7 +6566,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>8</v>
       </c>
@@ -5900,7 +6587,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>11</v>
       </c>
@@ -5942,7 +6629,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>8</v>
       </c>
@@ -5963,7 +6650,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>11</v>
       </c>
@@ -5984,7 +6671,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>8</v>
       </c>
@@ -6005,7 +6692,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>6</v>
       </c>
@@ -6026,7 +6713,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>6</v>
       </c>
@@ -6047,7 +6734,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>8</v>
       </c>
@@ -6068,7 +6755,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>11</v>
       </c>
@@ -6089,7 +6776,7 @@
         <v>280.8</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>11</v>
       </c>
@@ -6110,7 +6797,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>8</v>
       </c>
@@ -6131,7 +6818,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>6</v>
       </c>
@@ -6152,7 +6839,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>6</v>
       </c>
@@ -6173,7 +6860,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>6</v>
       </c>
@@ -6215,7 +6902,7 @@
         <v>421.20000000000005</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>6</v>
       </c>
@@ -6236,7 +6923,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>6</v>
       </c>
@@ -6257,7 +6944,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>8</v>
       </c>
@@ -6278,7 +6965,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>13</v>
       </c>
@@ -6299,7 +6986,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>13</v>
       </c>
@@ -6341,7 +7028,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>8</v>
       </c>
@@ -6362,7 +7049,7 @@
         <v>179.7</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>8</v>
       </c>
@@ -6383,7 +7070,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>11</v>
       </c>
@@ -6404,7 +7091,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>13</v>
       </c>
@@ -6425,7 +7112,7 @@
         <v>199.9</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>11</v>
       </c>
@@ -6446,7 +7133,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>11</v>
       </c>
@@ -6467,7 +7154,7 @@
         <v>399.8</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>13</v>
       </c>
@@ -6488,7 +7175,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>8</v>
       </c>
@@ -6530,7 +7217,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>8</v>
       </c>
@@ -6551,7 +7238,7 @@
         <v>179.7</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>6</v>
       </c>
@@ -6572,7 +7259,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>11</v>
       </c>
@@ -6593,7 +7280,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>11</v>
       </c>
@@ -6614,7 +7301,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>6</v>
       </c>
@@ -6635,7 +7322,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>8</v>
       </c>
@@ -6656,7 +7343,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>13</v>
       </c>
@@ -6677,7 +7364,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>11</v>
       </c>
@@ -6698,7 +7385,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>8</v>
       </c>
@@ -6719,7 +7406,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>6</v>
       </c>
@@ -6740,7 +7427,7 @@
         <v>599.70000000000005</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>6</v>
       </c>
@@ -6761,7 +7448,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>11</v>
       </c>
@@ -6782,7 +7469,7 @@
         <v>382.5</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>8</v>
       </c>
@@ -6803,7 +7490,7 @@
         <v>140.4</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>11</v>
       </c>
@@ -6824,7 +7511,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>15</v>
       </c>
@@ -6845,7 +7532,7 @@
         <v>299.5</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>16</v>
       </c>
@@ -6864,6 +7551,6342 @@
       <c r="F299" s="3">
         <f>E299*D299</f>
         <v>599.70000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C591C4-3634-4036-B04F-EBBE873E2FA2}">
+  <dimension ref="A1:H300"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="D301" sqref="D301"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" customWidth="1"/>
+    <col min="5" max="6" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10">
+        <v>44197</v>
+      </c>
+      <c r="D2" s="9">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F2" s="12">
+        <f t="shared" ref="F2:F65" si="0">E2*D2</f>
+        <v>119.69999999999999</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10">
+        <v>44197</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F3" s="12">
+        <f t="shared" si="0"/>
+        <v>421.20000000000005</v>
+      </c>
+      <c r="H3" s="4">
+        <f>SUM(Vendas_2[ValorTotal])</f>
+        <v>56027.800000000148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10">
+        <v>44197</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F4" s="12">
+        <f t="shared" si="0"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10">
+        <v>44197</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3</v>
+      </c>
+      <c r="E5" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F5" s="12">
+        <f t="shared" si="0"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10">
+        <v>44197</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F6" s="12">
+        <f t="shared" si="0"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10">
+        <v>44197</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="0"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10">
+        <v>44197</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F8" s="12">
+        <f t="shared" si="0"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="10">
+        <v>44197</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="0"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10">
+        <v>44198</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="0"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10">
+        <v>44198</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2</v>
+      </c>
+      <c r="E11" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="0"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="10">
+        <v>44198</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2</v>
+      </c>
+      <c r="E12" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="10">
+        <v>44198</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="0"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="10">
+        <v>44198</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2</v>
+      </c>
+      <c r="E14" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="10">
+        <v>44198</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2</v>
+      </c>
+      <c r="E15" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="0"/>
+        <v>280.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="10">
+        <v>44199</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2</v>
+      </c>
+      <c r="E16" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10">
+        <v>44199</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="10">
+        <v>44199</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="10">
+        <v>44199</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="0"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="10">
+        <v>44199</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" si="0"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="10">
+        <v>44199</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="0"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="10">
+        <v>44199</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" si="0"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="10">
+        <v>44199</v>
+      </c>
+      <c r="D23" s="9">
+        <v>3</v>
+      </c>
+      <c r="E23" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="0"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="10">
+        <v>44199</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" si="0"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="10">
+        <v>44199</v>
+      </c>
+      <c r="D25" s="9">
+        <v>3</v>
+      </c>
+      <c r="E25" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" si="0"/>
+        <v>599.70000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="10">
+        <v>44199</v>
+      </c>
+      <c r="D26" s="9">
+        <v>2</v>
+      </c>
+      <c r="E26" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F26" s="12">
+        <f t="shared" si="0"/>
+        <v>280.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="10">
+        <v>44199</v>
+      </c>
+      <c r="D27" s="9">
+        <v>2</v>
+      </c>
+      <c r="E27" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F27" s="12">
+        <f t="shared" si="0"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="10">
+        <v>44200</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F28" s="12">
+        <f t="shared" si="0"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="10">
+        <v>44200</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1</v>
+      </c>
+      <c r="E29" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F29" s="12">
+        <f t="shared" si="0"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="10">
+        <v>44200</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1</v>
+      </c>
+      <c r="E30" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F30" s="12">
+        <f t="shared" si="0"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="10">
+        <v>44200</v>
+      </c>
+      <c r="D31" s="9">
+        <v>3</v>
+      </c>
+      <c r="E31" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F31" s="12">
+        <f t="shared" si="0"/>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="10">
+        <v>44200</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1</v>
+      </c>
+      <c r="E32" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F32" s="12">
+        <f t="shared" si="0"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="10">
+        <v>44200</v>
+      </c>
+      <c r="D33" s="9">
+        <v>2</v>
+      </c>
+      <c r="E33" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F33" s="12">
+        <f t="shared" si="0"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="10">
+        <v>44200</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F34" s="12">
+        <f t="shared" si="0"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="10">
+        <v>44200</v>
+      </c>
+      <c r="D35" s="9">
+        <v>1</v>
+      </c>
+      <c r="E35" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F35" s="12">
+        <f t="shared" si="0"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="10">
+        <v>44200</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="E36" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F36" s="12">
+        <f t="shared" si="0"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="10">
+        <v>44201</v>
+      </c>
+      <c r="D37" s="9">
+        <v>3</v>
+      </c>
+      <c r="E37" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F37" s="12">
+        <f t="shared" si="0"/>
+        <v>119.69999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="10">
+        <v>44201</v>
+      </c>
+      <c r="D38" s="9">
+        <v>2</v>
+      </c>
+      <c r="E38" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F38" s="12">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="10">
+        <v>44201</v>
+      </c>
+      <c r="D39" s="9">
+        <v>1</v>
+      </c>
+      <c r="E39" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F39" s="12">
+        <f t="shared" si="0"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="10">
+        <v>44201</v>
+      </c>
+      <c r="D40" s="9">
+        <v>1</v>
+      </c>
+      <c r="E40" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F40" s="12">
+        <f t="shared" si="0"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="10">
+        <v>44201</v>
+      </c>
+      <c r="D41" s="9">
+        <v>1</v>
+      </c>
+      <c r="E41" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F41" s="12">
+        <f t="shared" si="0"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="10">
+        <v>44201</v>
+      </c>
+      <c r="D42" s="9">
+        <v>1</v>
+      </c>
+      <c r="E42" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F42" s="12">
+        <f t="shared" si="0"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="10">
+        <v>44201</v>
+      </c>
+      <c r="D43" s="9">
+        <v>1</v>
+      </c>
+      <c r="E43" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F43" s="12">
+        <f t="shared" si="0"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="10">
+        <v>44201</v>
+      </c>
+      <c r="D44" s="9">
+        <v>2</v>
+      </c>
+      <c r="E44" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F44" s="12">
+        <f t="shared" si="0"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="10">
+        <v>44201</v>
+      </c>
+      <c r="D45" s="9">
+        <v>1</v>
+      </c>
+      <c r="E45" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F45" s="12">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="10">
+        <v>44202</v>
+      </c>
+      <c r="D46" s="9">
+        <v>1</v>
+      </c>
+      <c r="E46" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F46" s="12">
+        <f t="shared" si="0"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="10">
+        <v>44202</v>
+      </c>
+      <c r="D47" s="9">
+        <v>2</v>
+      </c>
+      <c r="E47" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F47" s="12">
+        <f t="shared" si="0"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="10">
+        <v>44202</v>
+      </c>
+      <c r="D48" s="9">
+        <v>1</v>
+      </c>
+      <c r="E48" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F48" s="12">
+        <f t="shared" si="0"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="10">
+        <v>44202</v>
+      </c>
+      <c r="D49" s="9">
+        <v>1</v>
+      </c>
+      <c r="E49" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F49" s="12">
+        <f t="shared" si="0"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="10">
+        <v>44202</v>
+      </c>
+      <c r="D50" s="9">
+        <v>3</v>
+      </c>
+      <c r="E50" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F50" s="12">
+        <f t="shared" si="0"/>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="10">
+        <v>44202</v>
+      </c>
+      <c r="D51" s="9">
+        <v>1</v>
+      </c>
+      <c r="E51" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F51" s="12">
+        <f t="shared" si="0"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="10">
+        <v>44202</v>
+      </c>
+      <c r="D52" s="9">
+        <v>1</v>
+      </c>
+      <c r="E52" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F52" s="12">
+        <f t="shared" si="0"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="10">
+        <v>44202</v>
+      </c>
+      <c r="D53" s="9">
+        <v>3</v>
+      </c>
+      <c r="E53" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F53" s="12">
+        <f t="shared" si="0"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="10">
+        <v>44202</v>
+      </c>
+      <c r="D54" s="9">
+        <v>3</v>
+      </c>
+      <c r="E54" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F54" s="12">
+        <f t="shared" si="0"/>
+        <v>119.69999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="10">
+        <v>44203</v>
+      </c>
+      <c r="D55" s="9">
+        <v>2</v>
+      </c>
+      <c r="E55" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F55" s="12">
+        <f t="shared" si="0"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="10">
+        <v>44203</v>
+      </c>
+      <c r="D56" s="9">
+        <v>4</v>
+      </c>
+      <c r="E56" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F56" s="12">
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="10">
+        <v>44203</v>
+      </c>
+      <c r="D57" s="9">
+        <v>1</v>
+      </c>
+      <c r="E57" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F57" s="12">
+        <f t="shared" si="0"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="10">
+        <v>44203</v>
+      </c>
+      <c r="D58" s="9">
+        <v>1</v>
+      </c>
+      <c r="E58" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F58" s="12">
+        <f t="shared" si="0"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="10">
+        <v>44203</v>
+      </c>
+      <c r="D59" s="9">
+        <v>1</v>
+      </c>
+      <c r="E59" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F59" s="12">
+        <f t="shared" si="0"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="10">
+        <v>44203</v>
+      </c>
+      <c r="D60" s="9">
+        <v>3</v>
+      </c>
+      <c r="E60" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F60" s="12">
+        <f t="shared" si="0"/>
+        <v>179.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="10">
+        <v>44204</v>
+      </c>
+      <c r="D61" s="9">
+        <v>2</v>
+      </c>
+      <c r="E61" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F61" s="12">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="10">
+        <v>44204</v>
+      </c>
+      <c r="D62" s="9">
+        <v>1</v>
+      </c>
+      <c r="E62" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F62" s="12">
+        <f t="shared" si="0"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="10">
+        <v>44204</v>
+      </c>
+      <c r="D63" s="9">
+        <v>1</v>
+      </c>
+      <c r="E63" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F63" s="12">
+        <f t="shared" si="0"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="10">
+        <v>44204</v>
+      </c>
+      <c r="D64" s="9">
+        <v>1</v>
+      </c>
+      <c r="E64" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F64" s="12">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="10">
+        <v>44204</v>
+      </c>
+      <c r="D65" s="9">
+        <v>2</v>
+      </c>
+      <c r="E65" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F65" s="12">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="10">
+        <v>44204</v>
+      </c>
+      <c r="D66" s="9">
+        <v>1</v>
+      </c>
+      <c r="E66" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F66" s="12">
+        <f t="shared" ref="F66:F129" si="1">E66*D66</f>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="10">
+        <v>44204</v>
+      </c>
+      <c r="D67" s="9">
+        <v>2</v>
+      </c>
+      <c r="E67" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F67" s="12">
+        <f t="shared" si="1"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="10">
+        <v>44204</v>
+      </c>
+      <c r="D68" s="9">
+        <v>2</v>
+      </c>
+      <c r="E68" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F68" s="12">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="10">
+        <v>44204</v>
+      </c>
+      <c r="D69" s="9">
+        <v>1</v>
+      </c>
+      <c r="E69" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F69" s="12">
+        <f t="shared" si="1"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="10">
+        <v>44204</v>
+      </c>
+      <c r="D70" s="9">
+        <v>3</v>
+      </c>
+      <c r="E70" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F70" s="12">
+        <f t="shared" si="1"/>
+        <v>179.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="10">
+        <v>44204</v>
+      </c>
+      <c r="D71" s="9">
+        <v>1</v>
+      </c>
+      <c r="E71" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F71" s="12">
+        <f t="shared" si="1"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="10">
+        <v>44205</v>
+      </c>
+      <c r="D72" s="9">
+        <v>1</v>
+      </c>
+      <c r="E72" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F72" s="12">
+        <f t="shared" si="1"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="10">
+        <v>44205</v>
+      </c>
+      <c r="D73" s="9">
+        <v>2</v>
+      </c>
+      <c r="E73" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F73" s="12">
+        <f t="shared" si="1"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="10">
+        <v>44205</v>
+      </c>
+      <c r="D74" s="9">
+        <v>1</v>
+      </c>
+      <c r="E74" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F74" s="12">
+        <f t="shared" si="1"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="10">
+        <v>44205</v>
+      </c>
+      <c r="D75" s="9">
+        <v>2</v>
+      </c>
+      <c r="E75" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F75" s="12">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="10">
+        <v>44205</v>
+      </c>
+      <c r="D76" s="9">
+        <v>2</v>
+      </c>
+      <c r="E76" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F76" s="12">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="10">
+        <v>44205</v>
+      </c>
+      <c r="D77" s="9">
+        <v>1</v>
+      </c>
+      <c r="E77" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F77" s="12">
+        <f t="shared" si="1"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="10">
+        <v>44205</v>
+      </c>
+      <c r="D78" s="9">
+        <v>1</v>
+      </c>
+      <c r="E78" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F78" s="12">
+        <f t="shared" si="1"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="10">
+        <v>44205</v>
+      </c>
+      <c r="D79" s="9">
+        <v>3</v>
+      </c>
+      <c r="E79" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F79" s="12">
+        <f t="shared" si="1"/>
+        <v>119.69999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="10">
+        <v>44206</v>
+      </c>
+      <c r="D80" s="9">
+        <v>3</v>
+      </c>
+      <c r="E80" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F80" s="12">
+        <f t="shared" si="1"/>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="10">
+        <v>44206</v>
+      </c>
+      <c r="D81" s="9">
+        <v>3</v>
+      </c>
+      <c r="E81" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F81" s="12">
+        <f t="shared" si="1"/>
+        <v>119.69999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="10">
+        <v>44206</v>
+      </c>
+      <c r="D82" s="9">
+        <v>1</v>
+      </c>
+      <c r="E82" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F82" s="12">
+        <f t="shared" si="1"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="10">
+        <v>44206</v>
+      </c>
+      <c r="D83" s="9">
+        <v>1</v>
+      </c>
+      <c r="E83" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F83" s="12">
+        <f t="shared" si="1"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="10">
+        <v>44206</v>
+      </c>
+      <c r="D84" s="9">
+        <v>2</v>
+      </c>
+      <c r="E84" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F84" s="12">
+        <f t="shared" si="1"/>
+        <v>280.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="10">
+        <v>44206</v>
+      </c>
+      <c r="D85" s="9">
+        <v>1</v>
+      </c>
+      <c r="E85" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F85" s="12">
+        <f t="shared" si="1"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="10">
+        <v>44206</v>
+      </c>
+      <c r="D86" s="9">
+        <v>3</v>
+      </c>
+      <c r="E86" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F86" s="12">
+        <f t="shared" si="1"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="10">
+        <v>44206</v>
+      </c>
+      <c r="D87" s="9">
+        <v>2</v>
+      </c>
+      <c r="E87" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F87" s="12">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="10">
+        <v>44206</v>
+      </c>
+      <c r="D88" s="9">
+        <v>1</v>
+      </c>
+      <c r="E88" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F88" s="12">
+        <f t="shared" si="1"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="10">
+        <v>44206</v>
+      </c>
+      <c r="D89" s="9">
+        <v>1</v>
+      </c>
+      <c r="E89" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F89" s="12">
+        <f t="shared" si="1"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="10">
+        <v>44206</v>
+      </c>
+      <c r="D90" s="9">
+        <v>2</v>
+      </c>
+      <c r="E90" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F90" s="12">
+        <f t="shared" si="1"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="10">
+        <v>44206</v>
+      </c>
+      <c r="D91" s="9">
+        <v>3</v>
+      </c>
+      <c r="E91" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F91" s="12">
+        <f t="shared" si="1"/>
+        <v>599.70000000000005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="10">
+        <v>44206</v>
+      </c>
+      <c r="D92" s="9">
+        <v>3</v>
+      </c>
+      <c r="E92" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F92" s="12">
+        <f t="shared" si="1"/>
+        <v>179.7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="10">
+        <v>44207</v>
+      </c>
+      <c r="D93" s="9">
+        <v>3</v>
+      </c>
+      <c r="E93" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F93" s="12">
+        <f t="shared" si="1"/>
+        <v>119.69999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="10">
+        <v>44207</v>
+      </c>
+      <c r="D94" s="9">
+        <v>1</v>
+      </c>
+      <c r="E94" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F94" s="12">
+        <f t="shared" si="1"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="10">
+        <v>44207</v>
+      </c>
+      <c r="D95" s="9">
+        <v>1</v>
+      </c>
+      <c r="E95" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F95" s="12">
+        <f t="shared" si="1"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="10">
+        <v>44207</v>
+      </c>
+      <c r="D96" s="9">
+        <v>1</v>
+      </c>
+      <c r="E96" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F96" s="12">
+        <f t="shared" si="1"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="10">
+        <v>44207</v>
+      </c>
+      <c r="D97" s="9">
+        <v>1</v>
+      </c>
+      <c r="E97" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F97" s="12">
+        <f t="shared" si="1"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="10">
+        <v>44207</v>
+      </c>
+      <c r="D98" s="9">
+        <v>2</v>
+      </c>
+      <c r="E98" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F98" s="12">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="10">
+        <v>44207</v>
+      </c>
+      <c r="D99" s="9">
+        <v>1</v>
+      </c>
+      <c r="E99" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F99" s="12">
+        <f t="shared" si="1"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="10">
+        <v>44207</v>
+      </c>
+      <c r="D100" s="9">
+        <v>2</v>
+      </c>
+      <c r="E100" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F100" s="12">
+        <f t="shared" si="1"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="10">
+        <v>44207</v>
+      </c>
+      <c r="D101" s="9">
+        <v>2</v>
+      </c>
+      <c r="E101" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F101" s="12">
+        <f t="shared" si="1"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="10">
+        <v>44207</v>
+      </c>
+      <c r="D102" s="9">
+        <v>2</v>
+      </c>
+      <c r="E102" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F102" s="12">
+        <f t="shared" si="1"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="10">
+        <v>44208</v>
+      </c>
+      <c r="D103" s="9">
+        <v>1</v>
+      </c>
+      <c r="E103" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F103" s="12">
+        <f t="shared" si="1"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="10">
+        <v>44208</v>
+      </c>
+      <c r="D104" s="9">
+        <v>1</v>
+      </c>
+      <c r="E104" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F104" s="12">
+        <f t="shared" si="1"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="10">
+        <v>44208</v>
+      </c>
+      <c r="D105" s="9">
+        <v>1</v>
+      </c>
+      <c r="E105" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F105" s="12">
+        <f t="shared" si="1"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="10">
+        <v>44208</v>
+      </c>
+      <c r="D106" s="9">
+        <v>3</v>
+      </c>
+      <c r="E106" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F106" s="12">
+        <f t="shared" si="1"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="10">
+        <v>44208</v>
+      </c>
+      <c r="D107" s="9">
+        <v>1</v>
+      </c>
+      <c r="E107" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F107" s="12">
+        <f t="shared" si="1"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="10">
+        <v>44208</v>
+      </c>
+      <c r="D108" s="9">
+        <v>3</v>
+      </c>
+      <c r="E108" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F108" s="12">
+        <f t="shared" si="1"/>
+        <v>179.7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="10">
+        <v>44208</v>
+      </c>
+      <c r="D109" s="9">
+        <v>2</v>
+      </c>
+      <c r="E109" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F109" s="12">
+        <f t="shared" si="1"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="10">
+        <v>44208</v>
+      </c>
+      <c r="D110" s="9">
+        <v>2</v>
+      </c>
+      <c r="E110" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F110" s="12">
+        <f t="shared" si="1"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="10">
+        <v>44208</v>
+      </c>
+      <c r="D111" s="9">
+        <v>1</v>
+      </c>
+      <c r="E111" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F111" s="12">
+        <f t="shared" si="1"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="10">
+        <v>44208</v>
+      </c>
+      <c r="D112" s="9">
+        <v>2</v>
+      </c>
+      <c r="E112" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F112" s="12">
+        <f t="shared" si="1"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="10">
+        <v>44209</v>
+      </c>
+      <c r="D113" s="9">
+        <v>2</v>
+      </c>
+      <c r="E113" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F113" s="12">
+        <f t="shared" si="1"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" s="10">
+        <v>44209</v>
+      </c>
+      <c r="D114" s="9">
+        <v>1</v>
+      </c>
+      <c r="E114" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F114" s="12">
+        <f t="shared" si="1"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" s="10">
+        <v>44209</v>
+      </c>
+      <c r="D115" s="9">
+        <v>2</v>
+      </c>
+      <c r="E115" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F115" s="12">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="10">
+        <v>44209</v>
+      </c>
+      <c r="D116" s="9">
+        <v>3</v>
+      </c>
+      <c r="E116" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F116" s="12">
+        <f t="shared" si="1"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="10">
+        <v>44209</v>
+      </c>
+      <c r="D117" s="9">
+        <v>1</v>
+      </c>
+      <c r="E117" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F117" s="12">
+        <f t="shared" si="1"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="10">
+        <v>44209</v>
+      </c>
+      <c r="D118" s="9">
+        <v>1</v>
+      </c>
+      <c r="E118" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F118" s="12">
+        <f t="shared" si="1"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="10">
+        <v>44209</v>
+      </c>
+      <c r="D119" s="9">
+        <v>1</v>
+      </c>
+      <c r="E119" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F119" s="12">
+        <f t="shared" si="1"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="10">
+        <v>44209</v>
+      </c>
+      <c r="D120" s="9">
+        <v>1</v>
+      </c>
+      <c r="E120" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F120" s="12">
+        <f t="shared" si="1"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="10">
+        <v>44209</v>
+      </c>
+      <c r="D121" s="9">
+        <v>1</v>
+      </c>
+      <c r="E121" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F121" s="12">
+        <f t="shared" si="1"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="10">
+        <v>44209</v>
+      </c>
+      <c r="D122" s="9">
+        <v>1</v>
+      </c>
+      <c r="E122" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F122" s="12">
+        <f t="shared" si="1"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="10">
+        <v>44209</v>
+      </c>
+      <c r="D123" s="9">
+        <v>1</v>
+      </c>
+      <c r="E123" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F123" s="12">
+        <f t="shared" si="1"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="10">
+        <v>44209</v>
+      </c>
+      <c r="D124" s="9">
+        <v>1</v>
+      </c>
+      <c r="E124" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F124" s="12">
+        <f t="shared" si="1"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="10">
+        <v>44209</v>
+      </c>
+      <c r="D125" s="9">
+        <v>1</v>
+      </c>
+      <c r="E125" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F125" s="12">
+        <f t="shared" si="1"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="10">
+        <v>44209</v>
+      </c>
+      <c r="D126" s="9">
+        <v>1</v>
+      </c>
+      <c r="E126" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F126" s="12">
+        <f t="shared" si="1"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="10">
+        <v>44210</v>
+      </c>
+      <c r="D127" s="9">
+        <v>1</v>
+      </c>
+      <c r="E127" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F127" s="12">
+        <f t="shared" si="1"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="10">
+        <v>44210</v>
+      </c>
+      <c r="D128" s="9">
+        <v>3</v>
+      </c>
+      <c r="E128" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F128" s="12">
+        <f t="shared" si="1"/>
+        <v>179.7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="10">
+        <v>44210</v>
+      </c>
+      <c r="D129" s="9">
+        <v>1</v>
+      </c>
+      <c r="E129" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F129" s="12">
+        <f t="shared" si="1"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" s="10">
+        <v>44210</v>
+      </c>
+      <c r="D130" s="9">
+        <v>2</v>
+      </c>
+      <c r="E130" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F130" s="12">
+        <f t="shared" ref="F130:F193" si="2">E130*D130</f>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="10">
+        <v>44210</v>
+      </c>
+      <c r="D131" s="9">
+        <v>1</v>
+      </c>
+      <c r="E131" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F131" s="12">
+        <f t="shared" si="2"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="10">
+        <v>44210</v>
+      </c>
+      <c r="D132" s="9">
+        <v>1</v>
+      </c>
+      <c r="E132" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F132" s="12">
+        <f t="shared" si="2"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="10">
+        <v>44210</v>
+      </c>
+      <c r="D133" s="9">
+        <v>3</v>
+      </c>
+      <c r="E133" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F133" s="12">
+        <f t="shared" si="2"/>
+        <v>119.69999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="10">
+        <v>44210</v>
+      </c>
+      <c r="D134" s="9">
+        <v>2</v>
+      </c>
+      <c r="E134" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F134" s="12">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" s="10">
+        <v>44210</v>
+      </c>
+      <c r="D135" s="9">
+        <v>2</v>
+      </c>
+      <c r="E135" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F135" s="12">
+        <f t="shared" si="2"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" s="10">
+        <v>44210</v>
+      </c>
+      <c r="D136" s="9">
+        <v>3</v>
+      </c>
+      <c r="E136" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F136" s="12">
+        <f t="shared" si="2"/>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="10">
+        <v>44211</v>
+      </c>
+      <c r="D137" s="9">
+        <v>1</v>
+      </c>
+      <c r="E137" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F137" s="12">
+        <f t="shared" si="2"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" s="10">
+        <v>44211</v>
+      </c>
+      <c r="D138" s="9">
+        <v>1</v>
+      </c>
+      <c r="E138" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F138" s="12">
+        <f t="shared" si="2"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" s="10">
+        <v>44211</v>
+      </c>
+      <c r="D139" s="9">
+        <v>1</v>
+      </c>
+      <c r="E139" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F139" s="12">
+        <f t="shared" si="2"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" s="10">
+        <v>44211</v>
+      </c>
+      <c r="D140" s="9">
+        <v>1</v>
+      </c>
+      <c r="E140" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F140" s="12">
+        <f t="shared" si="2"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" s="10">
+        <v>44211</v>
+      </c>
+      <c r="D141" s="9">
+        <v>1</v>
+      </c>
+      <c r="E141" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F141" s="12">
+        <f t="shared" si="2"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" s="10">
+        <v>44211</v>
+      </c>
+      <c r="D142" s="9">
+        <v>1</v>
+      </c>
+      <c r="E142" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F142" s="12">
+        <f t="shared" si="2"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" s="10">
+        <v>44211</v>
+      </c>
+      <c r="D143" s="9">
+        <v>1</v>
+      </c>
+      <c r="E143" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F143" s="12">
+        <f t="shared" si="2"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" s="10">
+        <v>44211</v>
+      </c>
+      <c r="D144" s="9">
+        <v>4</v>
+      </c>
+      <c r="E144" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F144" s="12">
+        <f t="shared" si="2"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" s="10">
+        <v>44211</v>
+      </c>
+      <c r="D145" s="9">
+        <v>2</v>
+      </c>
+      <c r="E145" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F145" s="12">
+        <f t="shared" si="2"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" s="10">
+        <v>44211</v>
+      </c>
+      <c r="D146" s="9">
+        <v>1</v>
+      </c>
+      <c r="E146" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F146" s="12">
+        <f t="shared" si="2"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" s="10">
+        <v>44212</v>
+      </c>
+      <c r="D147" s="9">
+        <v>1</v>
+      </c>
+      <c r="E147" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F147" s="12">
+        <f t="shared" si="2"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="10">
+        <v>44212</v>
+      </c>
+      <c r="D148" s="9">
+        <v>3</v>
+      </c>
+      <c r="E148" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F148" s="12">
+        <f t="shared" si="2"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" s="10">
+        <v>44212</v>
+      </c>
+      <c r="D149" s="9">
+        <v>1</v>
+      </c>
+      <c r="E149" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F149" s="12">
+        <f t="shared" si="2"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" s="10">
+        <v>44212</v>
+      </c>
+      <c r="D150" s="9">
+        <v>3</v>
+      </c>
+      <c r="E150" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F150" s="12">
+        <f t="shared" si="2"/>
+        <v>179.7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="10">
+        <v>44212</v>
+      </c>
+      <c r="D151" s="9">
+        <v>2</v>
+      </c>
+      <c r="E151" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F151" s="12">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" s="10">
+        <v>44212</v>
+      </c>
+      <c r="D152" s="9">
+        <v>3</v>
+      </c>
+      <c r="E152" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F152" s="12">
+        <f t="shared" si="2"/>
+        <v>599.70000000000005</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="10">
+        <v>44212</v>
+      </c>
+      <c r="D153" s="9">
+        <v>2</v>
+      </c>
+      <c r="E153" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F153" s="12">
+        <f t="shared" si="2"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" s="10">
+        <v>44212</v>
+      </c>
+      <c r="D154" s="9">
+        <v>1</v>
+      </c>
+      <c r="E154" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F154" s="12">
+        <f t="shared" si="2"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="10">
+        <v>44212</v>
+      </c>
+      <c r="D155" s="9">
+        <v>2</v>
+      </c>
+      <c r="E155" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F155" s="12">
+        <f t="shared" si="2"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" s="10">
+        <v>44212</v>
+      </c>
+      <c r="D156" s="9">
+        <v>3</v>
+      </c>
+      <c r="E156" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F156" s="12">
+        <f t="shared" si="2"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" s="10">
+        <v>44212</v>
+      </c>
+      <c r="D157" s="9">
+        <v>1</v>
+      </c>
+      <c r="E157" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F157" s="12">
+        <f t="shared" si="2"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="10">
+        <v>44212</v>
+      </c>
+      <c r="D158" s="9">
+        <v>1</v>
+      </c>
+      <c r="E158" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F158" s="12">
+        <f t="shared" si="2"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="10">
+        <v>44213</v>
+      </c>
+      <c r="D159" s="9">
+        <v>2</v>
+      </c>
+      <c r="E159" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F159" s="12">
+        <f t="shared" si="2"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" s="10">
+        <v>44213</v>
+      </c>
+      <c r="D160" s="9">
+        <v>1</v>
+      </c>
+      <c r="E160" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F160" s="12">
+        <f t="shared" si="2"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" s="10">
+        <v>44213</v>
+      </c>
+      <c r="D161" s="9">
+        <v>3</v>
+      </c>
+      <c r="E161" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F161" s="12">
+        <f t="shared" si="2"/>
+        <v>599.70000000000005</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" s="10">
+        <v>44213</v>
+      </c>
+      <c r="D162" s="9">
+        <v>1</v>
+      </c>
+      <c r="E162" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F162" s="12">
+        <f t="shared" si="2"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" s="10">
+        <v>44213</v>
+      </c>
+      <c r="D163" s="9">
+        <v>1</v>
+      </c>
+      <c r="E163" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F163" s="12">
+        <f t="shared" si="2"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="10">
+        <v>44213</v>
+      </c>
+      <c r="D164" s="9">
+        <v>1</v>
+      </c>
+      <c r="E164" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F164" s="12">
+        <f t="shared" si="2"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" s="10">
+        <v>44213</v>
+      </c>
+      <c r="D165" s="9">
+        <v>1</v>
+      </c>
+      <c r="E165" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F165" s="12">
+        <f t="shared" si="2"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" s="10">
+        <v>44213</v>
+      </c>
+      <c r="D166" s="9">
+        <v>1</v>
+      </c>
+      <c r="E166" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F166" s="12">
+        <f t="shared" si="2"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" s="10">
+        <v>44213</v>
+      </c>
+      <c r="D167" s="9">
+        <v>1</v>
+      </c>
+      <c r="E167" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F167" s="12">
+        <f t="shared" si="2"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="10">
+        <v>44213</v>
+      </c>
+      <c r="D168" s="9">
+        <v>1</v>
+      </c>
+      <c r="E168" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F168" s="12">
+        <f t="shared" si="2"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" s="10">
+        <v>44213</v>
+      </c>
+      <c r="D169" s="9">
+        <v>3</v>
+      </c>
+      <c r="E169" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F169" s="12">
+        <f t="shared" si="2"/>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" s="10">
+        <v>44214</v>
+      </c>
+      <c r="D170" s="9">
+        <v>1</v>
+      </c>
+      <c r="E170" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F170" s="12">
+        <f t="shared" si="2"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="10">
+        <v>44214</v>
+      </c>
+      <c r="D171" s="9">
+        <v>1</v>
+      </c>
+      <c r="E171" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F171" s="12">
+        <f t="shared" si="2"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="10">
+        <v>44214</v>
+      </c>
+      <c r="D172" s="9">
+        <v>2</v>
+      </c>
+      <c r="E172" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F172" s="12">
+        <f t="shared" si="2"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" s="10">
+        <v>44214</v>
+      </c>
+      <c r="D173" s="9">
+        <v>2</v>
+      </c>
+      <c r="E173" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F173" s="12">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C174" s="10">
+        <v>44214</v>
+      </c>
+      <c r="D174" s="9">
+        <v>1</v>
+      </c>
+      <c r="E174" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F174" s="12">
+        <f t="shared" si="2"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" s="10">
+        <v>44214</v>
+      </c>
+      <c r="D175" s="9">
+        <v>1</v>
+      </c>
+      <c r="E175" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F175" s="12">
+        <f t="shared" si="2"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" s="10">
+        <v>44214</v>
+      </c>
+      <c r="D176" s="9">
+        <v>3</v>
+      </c>
+      <c r="E176" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F176" s="12">
+        <f t="shared" si="2"/>
+        <v>599.70000000000005</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" s="10">
+        <v>44214</v>
+      </c>
+      <c r="D177" s="9">
+        <v>1</v>
+      </c>
+      <c r="E177" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F177" s="12">
+        <f t="shared" si="2"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C178" s="10">
+        <v>44214</v>
+      </c>
+      <c r="D178" s="9">
+        <v>1</v>
+      </c>
+      <c r="E178" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F178" s="12">
+        <f t="shared" si="2"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179" s="10">
+        <v>44214</v>
+      </c>
+      <c r="D179" s="9">
+        <v>3</v>
+      </c>
+      <c r="E179" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F179" s="12">
+        <f t="shared" si="2"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="10">
+        <v>44214</v>
+      </c>
+      <c r="D180" s="9">
+        <v>1</v>
+      </c>
+      <c r="E180" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F180" s="12">
+        <f t="shared" si="2"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" s="10">
+        <v>44214</v>
+      </c>
+      <c r="D181" s="9">
+        <v>1</v>
+      </c>
+      <c r="E181" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F181" s="12">
+        <f t="shared" si="2"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" s="10">
+        <v>44215</v>
+      </c>
+      <c r="D182" s="9">
+        <v>2</v>
+      </c>
+      <c r="E182" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F182" s="12">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" s="10">
+        <v>44215</v>
+      </c>
+      <c r="D183" s="9">
+        <v>1</v>
+      </c>
+      <c r="E183" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F183" s="12">
+        <f t="shared" si="2"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" s="10">
+        <v>44215</v>
+      </c>
+      <c r="D184" s="9">
+        <v>2</v>
+      </c>
+      <c r="E184" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F184" s="12">
+        <f t="shared" si="2"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" s="10">
+        <v>44215</v>
+      </c>
+      <c r="D185" s="9">
+        <v>2</v>
+      </c>
+      <c r="E185" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F185" s="12">
+        <f t="shared" si="2"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" s="10">
+        <v>44215</v>
+      </c>
+      <c r="D186" s="9">
+        <v>3</v>
+      </c>
+      <c r="E186" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F186" s="12">
+        <f t="shared" si="2"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C187" s="10">
+        <v>44215</v>
+      </c>
+      <c r="D187" s="9">
+        <v>1</v>
+      </c>
+      <c r="E187" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F187" s="12">
+        <f t="shared" si="2"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" s="10">
+        <v>44215</v>
+      </c>
+      <c r="D188" s="9">
+        <v>3</v>
+      </c>
+      <c r="E188" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F188" s="12">
+        <f t="shared" si="2"/>
+        <v>599.70000000000005</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" s="10">
+        <v>44215</v>
+      </c>
+      <c r="D189" s="9">
+        <v>3</v>
+      </c>
+      <c r="E189" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F189" s="12">
+        <f t="shared" si="2"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C190" s="10">
+        <v>44215</v>
+      </c>
+      <c r="D190" s="9">
+        <v>1</v>
+      </c>
+      <c r="E190" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F190" s="12">
+        <f t="shared" si="2"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191" s="10">
+        <v>44215</v>
+      </c>
+      <c r="D191" s="9">
+        <v>3</v>
+      </c>
+      <c r="E191" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F191" s="12">
+        <f t="shared" si="2"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" s="10">
+        <v>44216</v>
+      </c>
+      <c r="D192" s="9">
+        <v>1</v>
+      </c>
+      <c r="E192" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F192" s="12">
+        <f t="shared" si="2"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193" s="10">
+        <v>44216</v>
+      </c>
+      <c r="D193" s="9">
+        <v>1</v>
+      </c>
+      <c r="E193" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F193" s="12">
+        <f t="shared" si="2"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" s="10">
+        <v>44216</v>
+      </c>
+      <c r="D194" s="9">
+        <v>2</v>
+      </c>
+      <c r="E194" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F194" s="12">
+        <f t="shared" ref="F194:F257" si="3">E194*D194</f>
+        <v>280.8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="10">
+        <v>44216</v>
+      </c>
+      <c r="D195" s="9">
+        <v>1</v>
+      </c>
+      <c r="E195" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F195" s="12">
+        <f t="shared" si="3"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C196" s="10">
+        <v>44216</v>
+      </c>
+      <c r="D196" s="9">
+        <v>1</v>
+      </c>
+      <c r="E196" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F196" s="12">
+        <f t="shared" si="3"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="10">
+        <v>44216</v>
+      </c>
+      <c r="D197" s="9">
+        <v>1</v>
+      </c>
+      <c r="E197" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F197" s="12">
+        <f t="shared" si="3"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" s="10">
+        <v>44216</v>
+      </c>
+      <c r="D198" s="9">
+        <v>1</v>
+      </c>
+      <c r="E198" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F198" s="12">
+        <f t="shared" si="3"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" s="10">
+        <v>44216</v>
+      </c>
+      <c r="D199" s="9">
+        <v>1</v>
+      </c>
+      <c r="E199" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F199" s="12">
+        <f t="shared" si="3"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C200" s="10">
+        <v>44216</v>
+      </c>
+      <c r="D200" s="9">
+        <v>3</v>
+      </c>
+      <c r="E200" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F200" s="12">
+        <f t="shared" si="3"/>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" s="10">
+        <v>44216</v>
+      </c>
+      <c r="D201" s="9">
+        <v>1</v>
+      </c>
+      <c r="E201" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F201" s="12">
+        <f t="shared" si="3"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C202" s="10">
+        <v>44216</v>
+      </c>
+      <c r="D202" s="9">
+        <v>1</v>
+      </c>
+      <c r="E202" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F202" s="12">
+        <f t="shared" si="3"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C203" s="10">
+        <v>44217</v>
+      </c>
+      <c r="D203" s="9">
+        <v>1</v>
+      </c>
+      <c r="E203" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F203" s="12">
+        <f t="shared" si="3"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" s="10">
+        <v>44217</v>
+      </c>
+      <c r="D204" s="9">
+        <v>1</v>
+      </c>
+      <c r="E204" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F204" s="12">
+        <f t="shared" si="3"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" s="10">
+        <v>44217</v>
+      </c>
+      <c r="D205" s="9">
+        <v>1</v>
+      </c>
+      <c r="E205" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F205" s="12">
+        <f t="shared" si="3"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" s="10">
+        <v>44217</v>
+      </c>
+      <c r="D206" s="9">
+        <v>2</v>
+      </c>
+      <c r="E206" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F206" s="12">
+        <f t="shared" si="3"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" s="10">
+        <v>44217</v>
+      </c>
+      <c r="D207" s="9">
+        <v>1</v>
+      </c>
+      <c r="E207" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F207" s="12">
+        <f t="shared" si="3"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" s="10">
+        <v>44217</v>
+      </c>
+      <c r="D208" s="9">
+        <v>1</v>
+      </c>
+      <c r="E208" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F208" s="12">
+        <f t="shared" si="3"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" s="10">
+        <v>44217</v>
+      </c>
+      <c r="D209" s="9">
+        <v>1</v>
+      </c>
+      <c r="E209" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F209" s="12">
+        <f t="shared" si="3"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="10">
+        <v>44217</v>
+      </c>
+      <c r="D210" s="9">
+        <v>2</v>
+      </c>
+      <c r="E210" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F210" s="12">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C211" s="10">
+        <v>44217</v>
+      </c>
+      <c r="D211" s="9">
+        <v>1</v>
+      </c>
+      <c r="E211" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F211" s="12">
+        <f t="shared" si="3"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C212" s="10">
+        <v>44217</v>
+      </c>
+      <c r="D212" s="9">
+        <v>1</v>
+      </c>
+      <c r="E212" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F212" s="12">
+        <f t="shared" si="3"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" s="10">
+        <v>44218</v>
+      </c>
+      <c r="D213" s="9">
+        <v>1</v>
+      </c>
+      <c r="E213" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F213" s="12">
+        <f t="shared" si="3"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C214" s="10">
+        <v>44218</v>
+      </c>
+      <c r="D214" s="9">
+        <v>1</v>
+      </c>
+      <c r="E214" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F214" s="12">
+        <f t="shared" si="3"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C215" s="10">
+        <v>44218</v>
+      </c>
+      <c r="D215" s="9">
+        <v>3</v>
+      </c>
+      <c r="E215" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F215" s="12">
+        <f t="shared" si="3"/>
+        <v>599.70000000000005</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" s="10">
+        <v>44218</v>
+      </c>
+      <c r="D216" s="9">
+        <v>1</v>
+      </c>
+      <c r="E216" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F216" s="12">
+        <f t="shared" si="3"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C217" s="10">
+        <v>44218</v>
+      </c>
+      <c r="D217" s="9">
+        <v>1</v>
+      </c>
+      <c r="E217" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F217" s="12">
+        <f t="shared" si="3"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C218" s="10">
+        <v>44218</v>
+      </c>
+      <c r="D218" s="9">
+        <v>3</v>
+      </c>
+      <c r="E218" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F218" s="12">
+        <f t="shared" si="3"/>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" s="10">
+        <v>44218</v>
+      </c>
+      <c r="D219" s="9">
+        <v>1</v>
+      </c>
+      <c r="E219" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F219" s="12">
+        <f t="shared" si="3"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C220" s="10">
+        <v>44219</v>
+      </c>
+      <c r="D220" s="9">
+        <v>1</v>
+      </c>
+      <c r="E220" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F220" s="12">
+        <f t="shared" si="3"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221" s="10">
+        <v>44219</v>
+      </c>
+      <c r="D221" s="9">
+        <v>2</v>
+      </c>
+      <c r="E221" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F221" s="12">
+        <f t="shared" si="3"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" s="10">
+        <v>44219</v>
+      </c>
+      <c r="D222" s="9">
+        <v>1</v>
+      </c>
+      <c r="E222" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F222" s="12">
+        <f t="shared" si="3"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C223" s="10">
+        <v>44219</v>
+      </c>
+      <c r="D223" s="9">
+        <v>2</v>
+      </c>
+      <c r="E223" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F223" s="12">
+        <f t="shared" si="3"/>
+        <v>280.8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C224" s="10">
+        <v>44219</v>
+      </c>
+      <c r="D224" s="9">
+        <v>3</v>
+      </c>
+      <c r="E224" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F224" s="12">
+        <f t="shared" si="3"/>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225" s="10">
+        <v>44219</v>
+      </c>
+      <c r="D225" s="9">
+        <v>1</v>
+      </c>
+      <c r="E225" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F225" s="12">
+        <f t="shared" si="3"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C226" s="10">
+        <v>44219</v>
+      </c>
+      <c r="D226" s="9">
+        <v>1</v>
+      </c>
+      <c r="E226" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F226" s="12">
+        <f t="shared" si="3"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C227" s="10">
+        <v>44219</v>
+      </c>
+      <c r="D227" s="9">
+        <v>1</v>
+      </c>
+      <c r="E227" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F227" s="12">
+        <f t="shared" si="3"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C228" s="10">
+        <v>44219</v>
+      </c>
+      <c r="D228" s="9">
+        <v>1</v>
+      </c>
+      <c r="E228" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F228" s="12">
+        <f t="shared" si="3"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C229" s="10">
+        <v>44220</v>
+      </c>
+      <c r="D229" s="9">
+        <v>1</v>
+      </c>
+      <c r="E229" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F229" s="12">
+        <f t="shared" si="3"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C230" s="10">
+        <v>44220</v>
+      </c>
+      <c r="D230" s="9">
+        <v>3</v>
+      </c>
+      <c r="E230" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F230" s="12">
+        <f t="shared" si="3"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C231" s="10">
+        <v>44220</v>
+      </c>
+      <c r="D231" s="9">
+        <v>1</v>
+      </c>
+      <c r="E231" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F231" s="12">
+        <f t="shared" si="3"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C232" s="10">
+        <v>44220</v>
+      </c>
+      <c r="D232" s="9">
+        <v>1</v>
+      </c>
+      <c r="E232" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F232" s="12">
+        <f t="shared" si="3"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C233" s="10">
+        <v>44220</v>
+      </c>
+      <c r="D233" s="9">
+        <v>3</v>
+      </c>
+      <c r="E233" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F233" s="12">
+        <f t="shared" si="3"/>
+        <v>599.70000000000005</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C234" s="10">
+        <v>44220</v>
+      </c>
+      <c r="D234" s="9">
+        <v>1</v>
+      </c>
+      <c r="E234" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F234" s="12">
+        <f t="shared" si="3"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C235" s="10">
+        <v>44220</v>
+      </c>
+      <c r="D235" s="9">
+        <v>1</v>
+      </c>
+      <c r="E235" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F235" s="12">
+        <f t="shared" si="3"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" s="10">
+        <v>44220</v>
+      </c>
+      <c r="D236" s="9">
+        <v>1</v>
+      </c>
+      <c r="E236" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F236" s="12">
+        <f t="shared" si="3"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C237" s="10">
+        <v>44220</v>
+      </c>
+      <c r="D237" s="9">
+        <v>1</v>
+      </c>
+      <c r="E237" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F237" s="12">
+        <f t="shared" si="3"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C238" s="10">
+        <v>44221</v>
+      </c>
+      <c r="D238" s="9">
+        <v>1</v>
+      </c>
+      <c r="E238" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F238" s="12">
+        <f t="shared" si="3"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C239" s="10">
+        <v>44221</v>
+      </c>
+      <c r="D239" s="9">
+        <v>1</v>
+      </c>
+      <c r="E239" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F239" s="12">
+        <f t="shared" si="3"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C240" s="10">
+        <v>44221</v>
+      </c>
+      <c r="D240" s="9">
+        <v>1</v>
+      </c>
+      <c r="E240" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F240" s="12">
+        <f t="shared" si="3"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C241" s="10">
+        <v>44221</v>
+      </c>
+      <c r="D241" s="9">
+        <v>3</v>
+      </c>
+      <c r="E241" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F241" s="12">
+        <f t="shared" si="3"/>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242" s="10">
+        <v>44221</v>
+      </c>
+      <c r="D242" s="9">
+        <v>1</v>
+      </c>
+      <c r="E242" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F242" s="12">
+        <f t="shared" si="3"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C243" s="10">
+        <v>44221</v>
+      </c>
+      <c r="D243" s="9">
+        <v>2</v>
+      </c>
+      <c r="E243" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F243" s="12">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C244" s="10">
+        <v>44221</v>
+      </c>
+      <c r="D244" s="9">
+        <v>1</v>
+      </c>
+      <c r="E244" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F244" s="12">
+        <f t="shared" si="3"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" s="10">
+        <v>44221</v>
+      </c>
+      <c r="D245" s="9">
+        <v>1</v>
+      </c>
+      <c r="E245" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F245" s="12">
+        <f t="shared" si="3"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C246" s="10">
+        <v>44221</v>
+      </c>
+      <c r="D246" s="9">
+        <v>1</v>
+      </c>
+      <c r="E246" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F246" s="12">
+        <f t="shared" si="3"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C247" s="10">
+        <v>44221</v>
+      </c>
+      <c r="D247" s="9">
+        <v>3</v>
+      </c>
+      <c r="E247" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F247" s="12">
+        <f t="shared" si="3"/>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C248" s="10">
+        <v>44221</v>
+      </c>
+      <c r="D248" s="9">
+        <v>5</v>
+      </c>
+      <c r="E248" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F248" s="12">
+        <f t="shared" si="3"/>
+        <v>299.5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249" s="10">
+        <v>44222</v>
+      </c>
+      <c r="D249" s="9">
+        <v>3</v>
+      </c>
+      <c r="E249" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F249" s="12">
+        <f t="shared" si="3"/>
+        <v>119.69999999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B250" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C250" s="10">
+        <v>44222</v>
+      </c>
+      <c r="D250" s="9">
+        <v>1</v>
+      </c>
+      <c r="E250" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F250" s="12">
+        <f t="shared" si="3"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C251" s="10">
+        <v>44222</v>
+      </c>
+      <c r="D251" s="9">
+        <v>2</v>
+      </c>
+      <c r="E251" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F251" s="12">
+        <f t="shared" si="3"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C252" s="10">
+        <v>44222</v>
+      </c>
+      <c r="D252" s="9">
+        <v>1</v>
+      </c>
+      <c r="E252" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F252" s="12">
+        <f t="shared" si="3"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C253" s="10">
+        <v>44222</v>
+      </c>
+      <c r="D253" s="9">
+        <v>2</v>
+      </c>
+      <c r="E253" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F253" s="12">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C254" s="10">
+        <v>44222</v>
+      </c>
+      <c r="D254" s="9">
+        <v>1</v>
+      </c>
+      <c r="E254" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F254" s="12">
+        <f t="shared" si="3"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C255" s="10">
+        <v>44222</v>
+      </c>
+      <c r="D255" s="9">
+        <v>1</v>
+      </c>
+      <c r="E255" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F255" s="12">
+        <f t="shared" si="3"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C256" s="10">
+        <v>44222</v>
+      </c>
+      <c r="D256" s="9">
+        <v>1</v>
+      </c>
+      <c r="E256" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F256" s="12">
+        <f t="shared" si="3"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C257" s="10">
+        <v>44222</v>
+      </c>
+      <c r="D257" s="9">
+        <v>1</v>
+      </c>
+      <c r="E257" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F257" s="12">
+        <f t="shared" si="3"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C258" s="10">
+        <v>44222</v>
+      </c>
+      <c r="D258" s="9">
+        <v>1</v>
+      </c>
+      <c r="E258" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F258" s="12">
+        <f t="shared" ref="F258:F297" si="4">E258*D258</f>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B259" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C259" s="10">
+        <v>44222</v>
+      </c>
+      <c r="D259" s="9">
+        <v>3</v>
+      </c>
+      <c r="E259" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F259" s="12">
+        <f t="shared" si="4"/>
+        <v>599.70000000000005</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B260" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C260" s="10">
+        <v>44223</v>
+      </c>
+      <c r="D260" s="9">
+        <v>2</v>
+      </c>
+      <c r="E260" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F260" s="12">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B261" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C261" s="10">
+        <v>44223</v>
+      </c>
+      <c r="D261" s="9">
+        <v>2</v>
+      </c>
+      <c r="E261" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F261" s="12">
+        <f t="shared" si="4"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B262" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C262" s="10">
+        <v>44223</v>
+      </c>
+      <c r="D262" s="9">
+        <v>2</v>
+      </c>
+      <c r="E262" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F262" s="12">
+        <f t="shared" si="4"/>
+        <v>280.8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263" s="10">
+        <v>44223</v>
+      </c>
+      <c r="D263" s="9">
+        <v>1</v>
+      </c>
+      <c r="E263" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F263" s="12">
+        <f t="shared" si="4"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B264" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C264" s="10">
+        <v>44223</v>
+      </c>
+      <c r="D264" s="9">
+        <v>1</v>
+      </c>
+      <c r="E264" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F264" s="12">
+        <f t="shared" si="4"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B265" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C265" s="10">
+        <v>44223</v>
+      </c>
+      <c r="D265" s="9">
+        <v>1</v>
+      </c>
+      <c r="E265" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F265" s="12">
+        <f t="shared" si="4"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B266" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C266" s="10">
+        <v>44223</v>
+      </c>
+      <c r="D266" s="9">
+        <v>1</v>
+      </c>
+      <c r="E266" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F266" s="12">
+        <f t="shared" si="4"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267" s="10">
+        <v>44223</v>
+      </c>
+      <c r="D267" s="9">
+        <v>2</v>
+      </c>
+      <c r="E267" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F267" s="12">
+        <f t="shared" si="4"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B268" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C268" s="10">
+        <v>44223</v>
+      </c>
+      <c r="D268" s="9">
+        <v>3</v>
+      </c>
+      <c r="E268" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F268" s="12">
+        <f t="shared" si="4"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B269" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C269" s="10">
+        <v>44224</v>
+      </c>
+      <c r="D269" s="9">
+        <v>1</v>
+      </c>
+      <c r="E269" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F269" s="12">
+        <f t="shared" si="4"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B270" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C270" s="10">
+        <v>44224</v>
+      </c>
+      <c r="D270" s="9">
+        <v>1</v>
+      </c>
+      <c r="E270" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F270" s="12">
+        <f t="shared" si="4"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B271" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C271" s="10">
+        <v>44224</v>
+      </c>
+      <c r="D271" s="9">
+        <v>1</v>
+      </c>
+      <c r="E271" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F271" s="12">
+        <f t="shared" si="4"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B272" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C272" s="10">
+        <v>44224</v>
+      </c>
+      <c r="D272" s="9">
+        <v>1</v>
+      </c>
+      <c r="E272" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F272" s="12">
+        <f t="shared" si="4"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C273" s="10">
+        <v>44224</v>
+      </c>
+      <c r="D273" s="9">
+        <v>1</v>
+      </c>
+      <c r="E273" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F273" s="12">
+        <f t="shared" si="4"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B274" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C274" s="10">
+        <v>44224</v>
+      </c>
+      <c r="D274" s="9">
+        <v>1</v>
+      </c>
+      <c r="E274" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F274" s="12">
+        <f t="shared" si="4"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C275" s="10">
+        <v>44224</v>
+      </c>
+      <c r="D275" s="9">
+        <v>3</v>
+      </c>
+      <c r="E275" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F275" s="12">
+        <f t="shared" si="4"/>
+        <v>179.7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B276" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C276" s="10">
+        <v>44224</v>
+      </c>
+      <c r="D276" s="9">
+        <v>1</v>
+      </c>
+      <c r="E276" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F276" s="12">
+        <f t="shared" si="4"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B277" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C277" s="10">
+        <v>44224</v>
+      </c>
+      <c r="D277" s="9">
+        <v>1</v>
+      </c>
+      <c r="E277" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F277" s="12">
+        <f t="shared" si="4"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B278" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C278" s="10">
+        <v>44225</v>
+      </c>
+      <c r="D278" s="9">
+        <v>1</v>
+      </c>
+      <c r="E278" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F278" s="12">
+        <f t="shared" si="4"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C279" s="10">
+        <v>44225</v>
+      </c>
+      <c r="D279" s="9">
+        <v>1</v>
+      </c>
+      <c r="E279" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F279" s="12">
+        <f t="shared" si="4"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B280" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C280" s="10">
+        <v>44225</v>
+      </c>
+      <c r="D280" s="9">
+        <v>2</v>
+      </c>
+      <c r="E280" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F280" s="12">
+        <f t="shared" si="4"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B281" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C281" s="10">
+        <v>44225</v>
+      </c>
+      <c r="D281" s="9">
+        <v>2</v>
+      </c>
+      <c r="E281" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F281" s="12">
+        <f t="shared" si="4"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B282" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C282" s="10">
+        <v>44225</v>
+      </c>
+      <c r="D282" s="9">
+        <v>1</v>
+      </c>
+      <c r="E282" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F282" s="12">
+        <f t="shared" si="4"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B283" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C283" s="10">
+        <v>44225</v>
+      </c>
+      <c r="D283" s="9">
+        <v>1</v>
+      </c>
+      <c r="E283" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F283" s="12">
+        <f t="shared" si="4"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B284" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C284" s="10">
+        <v>44225</v>
+      </c>
+      <c r="D284" s="9">
+        <v>3</v>
+      </c>
+      <c r="E284" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F284" s="12">
+        <f t="shared" si="4"/>
+        <v>179.7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B285" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C285" s="10">
+        <v>44225</v>
+      </c>
+      <c r="D285" s="9">
+        <v>1</v>
+      </c>
+      <c r="E285" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F285" s="12">
+        <f t="shared" si="4"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B286" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C286" s="10">
+        <v>44225</v>
+      </c>
+      <c r="D286" s="9">
+        <v>2</v>
+      </c>
+      <c r="E286" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F286" s="12">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B287" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C287" s="10">
+        <v>44225</v>
+      </c>
+      <c r="D287" s="9">
+        <v>1</v>
+      </c>
+      <c r="E287" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F287" s="12">
+        <f t="shared" si="4"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B288" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C288" s="10">
+        <v>44226</v>
+      </c>
+      <c r="D288" s="9">
+        <v>1</v>
+      </c>
+      <c r="E288" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F288" s="12">
+        <f t="shared" si="4"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B289" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289" s="10">
+        <v>44226</v>
+      </c>
+      <c r="D289" s="9">
+        <v>1</v>
+      </c>
+      <c r="E289" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F289" s="12">
+        <f t="shared" si="4"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B290" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C290" s="10">
+        <v>44226</v>
+      </c>
+      <c r="D290" s="9">
+        <v>2</v>
+      </c>
+      <c r="E290" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F290" s="12">
+        <f t="shared" si="4"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B291" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C291" s="10">
+        <v>44226</v>
+      </c>
+      <c r="D291" s="9">
+        <v>1</v>
+      </c>
+      <c r="E291" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F291" s="12">
+        <f t="shared" si="4"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B292" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C292" s="10">
+        <v>44226</v>
+      </c>
+      <c r="D292" s="9">
+        <v>1</v>
+      </c>
+      <c r="E292" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F292" s="12">
+        <f t="shared" si="4"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B293" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C293" s="10">
+        <v>44226</v>
+      </c>
+      <c r="D293" s="9">
+        <v>3</v>
+      </c>
+      <c r="E293" s="11">
+        <v>199.9</v>
+      </c>
+      <c r="F293" s="12">
+        <f t="shared" si="4"/>
+        <v>599.70000000000005</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B294" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C294" s="10">
+        <v>44226</v>
+      </c>
+      <c r="D294" s="9">
+        <v>1</v>
+      </c>
+      <c r="E294" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F294" s="12">
+        <f t="shared" si="4"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B295" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C295" s="10">
+        <v>44226</v>
+      </c>
+      <c r="D295" s="9">
+        <v>3</v>
+      </c>
+      <c r="E295" s="11">
+        <v>127.5</v>
+      </c>
+      <c r="F295" s="12">
+        <f t="shared" si="4"/>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B296" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C296" s="10">
+        <v>44226</v>
+      </c>
+      <c r="D296" s="9">
+        <v>1</v>
+      </c>
+      <c r="E296" s="11">
+        <v>140.4</v>
+      </c>
+      <c r="F296" s="12">
+        <f t="shared" si="4"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B297" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C297" s="10">
+        <v>44226</v>
+      </c>
+      <c r="D297" s="9">
+        <v>2</v>
+      </c>
+      <c r="E297" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F297" s="12">
+        <f t="shared" si="4"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B298" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C298" s="10">
+        <v>44226</v>
+      </c>
+      <c r="D298" s="9">
+        <v>5</v>
+      </c>
+      <c r="E298" s="11">
+        <v>59.9</v>
+      </c>
+      <c r="F298" s="12">
+        <f>E298*D298</f>
+        <v>299.5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B299" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C299" s="15">
+        <v>44225</v>
+      </c>
+      <c r="D299" s="14">
+        <v>3</v>
+      </c>
+      <c r="E299" s="16">
+        <v>199.9</v>
+      </c>
+      <c r="F299" s="17">
+        <f>E299*D299</f>
+        <v>599.70000000000005</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B300" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300" s="15">
+        <v>44500</v>
+      </c>
+      <c r="D300" s="14">
+        <v>6</v>
+      </c>
+      <c r="E300" s="11">
+        <v>39.9</v>
+      </c>
+      <c r="F300" s="17">
+        <f>E300*D300</f>
+        <v>239.39999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/2.Excel/hands-on/5.Formatacao/2.Formatacao_tabelas_design.xlsx
+++ b/2.Excel/hands-on/5.Formatacao/2.Formatacao_tabelas_design.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Projetos para Github\Hashtag\2.Excel\hands-on\5.Formatacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC25E65-FE24-4B90-853E-F0156E060D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0808DD56-4EF8-4472-BCBF-039C93A66FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10944" yWindow="0" windowWidth="12192" windowHeight="12792" activeTab="1" xr2:uid="{F1DCBCDB-AE2B-43B4-B740-43329A64DDA9}"/>
+    <workbookView xWindow="10944" yWindow="0" windowWidth="12192" windowHeight="12792" xr2:uid="{F1DCBCDB-AE2B-43B4-B740-43329A64DDA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Validacao_dados" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="SegmentaçãodeDados_Produto">#N/A</definedName>
@@ -27,8 +29,8 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId3"/>
-        <x14:slicerCache r:id="rId4"/>
+        <x14:slicerCache r:id="rId5"/>
+        <x14:slicerCache r:id="rId6"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="23">
   <si>
     <t>Vendedor</t>
   </si>
@@ -100,6 +102,24 @@
   <si>
     <t>Leila Cayres</t>
   </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>EUA</t>
+  </si>
+  <si>
+    <t>Origem</t>
+  </si>
+  <si>
+    <t>Coluna1</t>
+  </si>
+  <si>
+    <t>Moçambique</t>
+  </si>
 </sst>
 </file>
 
@@ -108,7 +128,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,13 +136,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -248,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -298,6 +330,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -965,6 +1009,16 @@
 </table>
 </file>
 
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E6D24790-9A4B-4FFE-9861-A642DAA03C06}" name="Tabela6" displayName="Tabela6" ref="A1:A5" totalsRowShown="0">
+  <autoFilter ref="A1:A5" xr:uid="{E6D24790-9A4B-4FFE-9861-A642DAA03C06}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{DB3A5E4E-56FE-4F7B-BB4E-C01833C5FEB7}" name="Coluna1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -1264,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B57C723-6BDD-4285-A449-C142A2C89BA1}">
   <dimension ref="A1:F299"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F299"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B302" sqref="B302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7573,8 +7627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C591C4-3634-4036-B04F-EBBE873E2FA2}">
   <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="D301" sqref="D301"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13895,4 +13949,6383 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A03C2CD-AD0C-4AC3-A86F-E13E8D503D68}">
+  <dimension ref="A1:H300"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" customWidth="1"/>
+    <col min="5" max="6" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="20">
+        <v>44197</v>
+      </c>
+      <c r="D2" s="19">
+        <v>3</v>
+      </c>
+      <c r="E2" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F2" s="18">
+        <f t="shared" ref="F2:F65" si="0">E2*D2</f>
+        <v>119.69999999999999</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="20">
+        <v>44197</v>
+      </c>
+      <c r="D3" s="19">
+        <v>3</v>
+      </c>
+      <c r="E3" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F3" s="18">
+        <f t="shared" si="0"/>
+        <v>421.20000000000005</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="20">
+        <v>44197</v>
+      </c>
+      <c r="D4" s="19">
+        <v>1</v>
+      </c>
+      <c r="E4" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F4" s="18">
+        <f t="shared" si="0"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="20">
+        <v>44197</v>
+      </c>
+      <c r="D5" s="19">
+        <v>3</v>
+      </c>
+      <c r="E5" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F5" s="18">
+        <f t="shared" si="0"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="20">
+        <v>44197</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F6" s="18">
+        <f t="shared" si="0"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="20">
+        <v>44197</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F7" s="18">
+        <f t="shared" si="0"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="20">
+        <v>44197</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F8" s="18">
+        <f t="shared" si="0"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="20">
+        <v>44197</v>
+      </c>
+      <c r="D9" s="19">
+        <v>2</v>
+      </c>
+      <c r="E9" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F9" s="18">
+        <f t="shared" si="0"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="20">
+        <v>44198</v>
+      </c>
+      <c r="D10" s="19">
+        <v>1</v>
+      </c>
+      <c r="E10" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F10" s="18">
+        <f t="shared" si="0"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="20">
+        <v>44198</v>
+      </c>
+      <c r="D11" s="19">
+        <v>2</v>
+      </c>
+      <c r="E11" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F11" s="18">
+        <f t="shared" si="0"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="20">
+        <v>44198</v>
+      </c>
+      <c r="D12" s="19">
+        <v>2</v>
+      </c>
+      <c r="E12" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F12" s="18">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="20">
+        <v>44198</v>
+      </c>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F13" s="18">
+        <f t="shared" si="0"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="20">
+        <v>44198</v>
+      </c>
+      <c r="D14" s="19">
+        <v>2</v>
+      </c>
+      <c r="E14" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F14" s="18">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="20">
+        <v>44198</v>
+      </c>
+      <c r="D15" s="19">
+        <v>2</v>
+      </c>
+      <c r="E15" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F15" s="18">
+        <f t="shared" si="0"/>
+        <v>280.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="20">
+        <v>44199</v>
+      </c>
+      <c r="D16" s="19">
+        <v>2</v>
+      </c>
+      <c r="E16" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F16" s="18">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="20">
+        <v>44199</v>
+      </c>
+      <c r="D17" s="19">
+        <v>1</v>
+      </c>
+      <c r="E17" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F17" s="18">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="20">
+        <v>44199</v>
+      </c>
+      <c r="D18" s="19">
+        <v>1</v>
+      </c>
+      <c r="E18" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F18" s="18">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="20">
+        <v>44199</v>
+      </c>
+      <c r="D19" s="19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F19" s="18">
+        <f t="shared" si="0"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="20">
+        <v>44199</v>
+      </c>
+      <c r="D20" s="19">
+        <v>1</v>
+      </c>
+      <c r="E20" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F20" s="18">
+        <f t="shared" si="0"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="20">
+        <v>44199</v>
+      </c>
+      <c r="D21" s="19">
+        <v>1</v>
+      </c>
+      <c r="E21" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F21" s="18">
+        <f t="shared" si="0"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="20">
+        <v>44199</v>
+      </c>
+      <c r="D22" s="19">
+        <v>1</v>
+      </c>
+      <c r="E22" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F22" s="18">
+        <f t="shared" si="0"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="20">
+        <v>44199</v>
+      </c>
+      <c r="D23" s="19">
+        <v>3</v>
+      </c>
+      <c r="E23" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F23" s="18">
+        <f t="shared" si="0"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="20">
+        <v>44199</v>
+      </c>
+      <c r="D24" s="19">
+        <v>1</v>
+      </c>
+      <c r="E24" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F24" s="18">
+        <f t="shared" si="0"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="20">
+        <v>44199</v>
+      </c>
+      <c r="D25" s="19">
+        <v>3</v>
+      </c>
+      <c r="E25" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F25" s="18">
+        <f t="shared" si="0"/>
+        <v>599.70000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="20">
+        <v>44199</v>
+      </c>
+      <c r="D26" s="19">
+        <v>2</v>
+      </c>
+      <c r="E26" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F26" s="18">
+        <f t="shared" si="0"/>
+        <v>280.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="20">
+        <v>44199</v>
+      </c>
+      <c r="D27" s="19">
+        <v>2</v>
+      </c>
+      <c r="E27" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F27" s="18">
+        <f t="shared" si="0"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="20">
+        <v>44200</v>
+      </c>
+      <c r="D28" s="19">
+        <v>1</v>
+      </c>
+      <c r="E28" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F28" s="18">
+        <f t="shared" si="0"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="20">
+        <v>44200</v>
+      </c>
+      <c r="D29" s="19">
+        <v>1</v>
+      </c>
+      <c r="E29" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F29" s="18">
+        <f t="shared" si="0"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="20">
+        <v>44200</v>
+      </c>
+      <c r="D30" s="19">
+        <v>1</v>
+      </c>
+      <c r="E30" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F30" s="18">
+        <f t="shared" si="0"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="20">
+        <v>44200</v>
+      </c>
+      <c r="D31" s="19">
+        <v>3</v>
+      </c>
+      <c r="E31" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F31" s="18">
+        <f t="shared" si="0"/>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="20">
+        <v>44200</v>
+      </c>
+      <c r="D32" s="19">
+        <v>1</v>
+      </c>
+      <c r="E32" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F32" s="18">
+        <f t="shared" si="0"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="20">
+        <v>44200</v>
+      </c>
+      <c r="D33" s="19">
+        <v>2</v>
+      </c>
+      <c r="E33" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F33" s="18">
+        <f t="shared" si="0"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="20">
+        <v>44200</v>
+      </c>
+      <c r="D34" s="19">
+        <v>1</v>
+      </c>
+      <c r="E34" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F34" s="18">
+        <f t="shared" si="0"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="20">
+        <v>44200</v>
+      </c>
+      <c r="D35" s="19">
+        <v>1</v>
+      </c>
+      <c r="E35" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F35" s="18">
+        <f t="shared" si="0"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="20">
+        <v>44200</v>
+      </c>
+      <c r="D36" s="19">
+        <v>1</v>
+      </c>
+      <c r="E36" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F36" s="18">
+        <f t="shared" si="0"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="20">
+        <v>44201</v>
+      </c>
+      <c r="D37" s="19">
+        <v>3</v>
+      </c>
+      <c r="E37" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F37" s="18">
+        <f t="shared" si="0"/>
+        <v>119.69999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="20">
+        <v>44201</v>
+      </c>
+      <c r="D38" s="19">
+        <v>2</v>
+      </c>
+      <c r="E38" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F38" s="18">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="20">
+        <v>44201</v>
+      </c>
+      <c r="D39" s="19">
+        <v>1</v>
+      </c>
+      <c r="E39" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F39" s="18">
+        <f t="shared" si="0"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="20">
+        <v>44201</v>
+      </c>
+      <c r="D40" s="19">
+        <v>1</v>
+      </c>
+      <c r="E40" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F40" s="18">
+        <f t="shared" si="0"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="20">
+        <v>44201</v>
+      </c>
+      <c r="D41" s="19">
+        <v>1</v>
+      </c>
+      <c r="E41" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F41" s="18">
+        <f t="shared" si="0"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="20">
+        <v>44201</v>
+      </c>
+      <c r="D42" s="19">
+        <v>1</v>
+      </c>
+      <c r="E42" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F42" s="18">
+        <f t="shared" si="0"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="20">
+        <v>44201</v>
+      </c>
+      <c r="D43" s="19">
+        <v>1</v>
+      </c>
+      <c r="E43" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F43" s="18">
+        <f t="shared" si="0"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="20">
+        <v>44201</v>
+      </c>
+      <c r="D44" s="19">
+        <v>2</v>
+      </c>
+      <c r="E44" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F44" s="18">
+        <f t="shared" si="0"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="20">
+        <v>44201</v>
+      </c>
+      <c r="D45" s="19">
+        <v>1</v>
+      </c>
+      <c r="E45" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F45" s="18">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="20">
+        <v>44202</v>
+      </c>
+      <c r="D46" s="19">
+        <v>1</v>
+      </c>
+      <c r="E46" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F46" s="18">
+        <f t="shared" si="0"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="20">
+        <v>44202</v>
+      </c>
+      <c r="D47" s="19">
+        <v>2</v>
+      </c>
+      <c r="E47" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F47" s="18">
+        <f t="shared" si="0"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="20">
+        <v>44202</v>
+      </c>
+      <c r="D48" s="19">
+        <v>1</v>
+      </c>
+      <c r="E48" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F48" s="18">
+        <f t="shared" si="0"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="20">
+        <v>44202</v>
+      </c>
+      <c r="D49" s="19">
+        <v>1</v>
+      </c>
+      <c r="E49" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F49" s="18">
+        <f t="shared" si="0"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="20">
+        <v>44202</v>
+      </c>
+      <c r="D50" s="19">
+        <v>3</v>
+      </c>
+      <c r="E50" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F50" s="18">
+        <f t="shared" si="0"/>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="20">
+        <v>44202</v>
+      </c>
+      <c r="D51" s="19">
+        <v>1</v>
+      </c>
+      <c r="E51" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F51" s="18">
+        <f t="shared" si="0"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="20">
+        <v>44202</v>
+      </c>
+      <c r="D52" s="19">
+        <v>1</v>
+      </c>
+      <c r="E52" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F52" s="18">
+        <f t="shared" si="0"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="20">
+        <v>44202</v>
+      </c>
+      <c r="D53" s="19">
+        <v>3</v>
+      </c>
+      <c r="E53" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F53" s="18">
+        <f t="shared" si="0"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="20">
+        <v>44202</v>
+      </c>
+      <c r="D54" s="19">
+        <v>3</v>
+      </c>
+      <c r="E54" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F54" s="18">
+        <f t="shared" si="0"/>
+        <v>119.69999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="20">
+        <v>44203</v>
+      </c>
+      <c r="D55" s="19">
+        <v>2</v>
+      </c>
+      <c r="E55" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F55" s="18">
+        <f t="shared" si="0"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="20">
+        <v>44203</v>
+      </c>
+      <c r="D56" s="19">
+        <v>4</v>
+      </c>
+      <c r="E56" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F56" s="18">
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="20">
+        <v>44203</v>
+      </c>
+      <c r="D57" s="19">
+        <v>1</v>
+      </c>
+      <c r="E57" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F57" s="18">
+        <f t="shared" si="0"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="20">
+        <v>44203</v>
+      </c>
+      <c r="D58" s="19">
+        <v>1</v>
+      </c>
+      <c r="E58" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F58" s="18">
+        <f t="shared" si="0"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="20">
+        <v>44203</v>
+      </c>
+      <c r="D59" s="19">
+        <v>1</v>
+      </c>
+      <c r="E59" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F59" s="18">
+        <f t="shared" si="0"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="20">
+        <v>44203</v>
+      </c>
+      <c r="D60" s="19">
+        <v>3</v>
+      </c>
+      <c r="E60" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F60" s="18">
+        <f t="shared" si="0"/>
+        <v>179.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="20">
+        <v>44204</v>
+      </c>
+      <c r="D61" s="19">
+        <v>2</v>
+      </c>
+      <c r="E61" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F61" s="18">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="20">
+        <v>44204</v>
+      </c>
+      <c r="D62" s="19">
+        <v>1</v>
+      </c>
+      <c r="E62" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F62" s="18">
+        <f t="shared" si="0"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="20">
+        <v>44204</v>
+      </c>
+      <c r="D63" s="19">
+        <v>1</v>
+      </c>
+      <c r="E63" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F63" s="18">
+        <f t="shared" si="0"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="20">
+        <v>44204</v>
+      </c>
+      <c r="D64" s="19">
+        <v>1</v>
+      </c>
+      <c r="E64" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F64" s="18">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="20">
+        <v>44204</v>
+      </c>
+      <c r="D65" s="19">
+        <v>2</v>
+      </c>
+      <c r="E65" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F65" s="18">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="20">
+        <v>44204</v>
+      </c>
+      <c r="D66" s="19">
+        <v>1</v>
+      </c>
+      <c r="E66" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F66" s="18">
+        <f t="shared" ref="F66:F129" si="1">E66*D66</f>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="20">
+        <v>44204</v>
+      </c>
+      <c r="D67" s="19">
+        <v>2</v>
+      </c>
+      <c r="E67" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F67" s="18">
+        <f t="shared" si="1"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="20">
+        <v>44204</v>
+      </c>
+      <c r="D68" s="19">
+        <v>2</v>
+      </c>
+      <c r="E68" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F68" s="18">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="20">
+        <v>44204</v>
+      </c>
+      <c r="D69" s="19">
+        <v>1</v>
+      </c>
+      <c r="E69" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F69" s="18">
+        <f t="shared" si="1"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="20">
+        <v>44204</v>
+      </c>
+      <c r="D70" s="19">
+        <v>3</v>
+      </c>
+      <c r="E70" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F70" s="18">
+        <f t="shared" si="1"/>
+        <v>179.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="20">
+        <v>44204</v>
+      </c>
+      <c r="D71" s="19">
+        <v>1</v>
+      </c>
+      <c r="E71" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F71" s="18">
+        <f t="shared" si="1"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="20">
+        <v>44205</v>
+      </c>
+      <c r="D72" s="19">
+        <v>1</v>
+      </c>
+      <c r="E72" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F72" s="18">
+        <f t="shared" si="1"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="20">
+        <v>44205</v>
+      </c>
+      <c r="D73" s="19">
+        <v>2</v>
+      </c>
+      <c r="E73" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F73" s="18">
+        <f t="shared" si="1"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="20">
+        <v>44205</v>
+      </c>
+      <c r="D74" s="19">
+        <v>1</v>
+      </c>
+      <c r="E74" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F74" s="18">
+        <f t="shared" si="1"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="20">
+        <v>44205</v>
+      </c>
+      <c r="D75" s="19">
+        <v>2</v>
+      </c>
+      <c r="E75" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F75" s="18">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="20">
+        <v>44205</v>
+      </c>
+      <c r="D76" s="19">
+        <v>2</v>
+      </c>
+      <c r="E76" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F76" s="18">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="20">
+        <v>44205</v>
+      </c>
+      <c r="D77" s="19">
+        <v>1</v>
+      </c>
+      <c r="E77" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F77" s="18">
+        <f t="shared" si="1"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="20">
+        <v>44205</v>
+      </c>
+      <c r="D78" s="19">
+        <v>1</v>
+      </c>
+      <c r="E78" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F78" s="18">
+        <f t="shared" si="1"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="20">
+        <v>44205</v>
+      </c>
+      <c r="D79" s="19">
+        <v>3</v>
+      </c>
+      <c r="E79" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F79" s="18">
+        <f t="shared" si="1"/>
+        <v>119.69999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="20">
+        <v>44206</v>
+      </c>
+      <c r="D80" s="19">
+        <v>3</v>
+      </c>
+      <c r="E80" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F80" s="18">
+        <f t="shared" si="1"/>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="20">
+        <v>44206</v>
+      </c>
+      <c r="D81" s="19">
+        <v>3</v>
+      </c>
+      <c r="E81" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F81" s="18">
+        <f t="shared" si="1"/>
+        <v>119.69999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="20">
+        <v>44206</v>
+      </c>
+      <c r="D82" s="19">
+        <v>1</v>
+      </c>
+      <c r="E82" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F82" s="18">
+        <f t="shared" si="1"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="20">
+        <v>44206</v>
+      </c>
+      <c r="D83" s="19">
+        <v>1</v>
+      </c>
+      <c r="E83" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F83" s="18">
+        <f t="shared" si="1"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="20">
+        <v>44206</v>
+      </c>
+      <c r="D84" s="19">
+        <v>2</v>
+      </c>
+      <c r="E84" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F84" s="18">
+        <f t="shared" si="1"/>
+        <v>280.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="20">
+        <v>44206</v>
+      </c>
+      <c r="D85" s="19">
+        <v>1</v>
+      </c>
+      <c r="E85" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F85" s="18">
+        <f t="shared" si="1"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="20">
+        <v>44206</v>
+      </c>
+      <c r="D86" s="19">
+        <v>3</v>
+      </c>
+      <c r="E86" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F86" s="18">
+        <f t="shared" si="1"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="20">
+        <v>44206</v>
+      </c>
+      <c r="D87" s="19">
+        <v>2</v>
+      </c>
+      <c r="E87" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F87" s="18">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="20">
+        <v>44206</v>
+      </c>
+      <c r="D88" s="19">
+        <v>1</v>
+      </c>
+      <c r="E88" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F88" s="18">
+        <f t="shared" si="1"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="20">
+        <v>44206</v>
+      </c>
+      <c r="D89" s="19">
+        <v>1</v>
+      </c>
+      <c r="E89" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F89" s="18">
+        <f t="shared" si="1"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="20">
+        <v>44206</v>
+      </c>
+      <c r="D90" s="19">
+        <v>2</v>
+      </c>
+      <c r="E90" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F90" s="18">
+        <f t="shared" si="1"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="20">
+        <v>44206</v>
+      </c>
+      <c r="D91" s="19">
+        <v>3</v>
+      </c>
+      <c r="E91" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F91" s="18">
+        <f t="shared" si="1"/>
+        <v>599.70000000000005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="20">
+        <v>44206</v>
+      </c>
+      <c r="D92" s="19">
+        <v>3</v>
+      </c>
+      <c r="E92" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F92" s="18">
+        <f t="shared" si="1"/>
+        <v>179.7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="20">
+        <v>44207</v>
+      </c>
+      <c r="D93" s="19">
+        <v>3</v>
+      </c>
+      <c r="E93" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F93" s="18">
+        <f t="shared" si="1"/>
+        <v>119.69999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="20">
+        <v>44207</v>
+      </c>
+      <c r="D94" s="19">
+        <v>1</v>
+      </c>
+      <c r="E94" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F94" s="18">
+        <f t="shared" si="1"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="20">
+        <v>44207</v>
+      </c>
+      <c r="D95" s="19">
+        <v>1</v>
+      </c>
+      <c r="E95" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F95" s="18">
+        <f t="shared" si="1"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="20">
+        <v>44207</v>
+      </c>
+      <c r="D96" s="19">
+        <v>1</v>
+      </c>
+      <c r="E96" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F96" s="18">
+        <f t="shared" si="1"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="20">
+        <v>44207</v>
+      </c>
+      <c r="D97" s="19">
+        <v>1</v>
+      </c>
+      <c r="E97" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F97" s="18">
+        <f t="shared" si="1"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="20">
+        <v>44207</v>
+      </c>
+      <c r="D98" s="19">
+        <v>2</v>
+      </c>
+      <c r="E98" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F98" s="18">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="20">
+        <v>44207</v>
+      </c>
+      <c r="D99" s="19">
+        <v>1</v>
+      </c>
+      <c r="E99" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F99" s="18">
+        <f t="shared" si="1"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="20">
+        <v>44207</v>
+      </c>
+      <c r="D100" s="19">
+        <v>2</v>
+      </c>
+      <c r="E100" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F100" s="18">
+        <f t="shared" si="1"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="20">
+        <v>44207</v>
+      </c>
+      <c r="D101" s="19">
+        <v>2</v>
+      </c>
+      <c r="E101" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F101" s="18">
+        <f t="shared" si="1"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="20">
+        <v>44207</v>
+      </c>
+      <c r="D102" s="19">
+        <v>2</v>
+      </c>
+      <c r="E102" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F102" s="18">
+        <f t="shared" si="1"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="20">
+        <v>44208</v>
+      </c>
+      <c r="D103" s="19">
+        <v>1</v>
+      </c>
+      <c r="E103" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F103" s="18">
+        <f t="shared" si="1"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="20">
+        <v>44208</v>
+      </c>
+      <c r="D104" s="19">
+        <v>1</v>
+      </c>
+      <c r="E104" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F104" s="18">
+        <f t="shared" si="1"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="20">
+        <v>44208</v>
+      </c>
+      <c r="D105" s="19">
+        <v>1</v>
+      </c>
+      <c r="E105" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F105" s="18">
+        <f t="shared" si="1"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="20">
+        <v>44208</v>
+      </c>
+      <c r="D106" s="19">
+        <v>3</v>
+      </c>
+      <c r="E106" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F106" s="18">
+        <f t="shared" si="1"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="20">
+        <v>44208</v>
+      </c>
+      <c r="D107" s="19">
+        <v>1</v>
+      </c>
+      <c r="E107" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F107" s="18">
+        <f t="shared" si="1"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="20">
+        <v>44208</v>
+      </c>
+      <c r="D108" s="19">
+        <v>3</v>
+      </c>
+      <c r="E108" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F108" s="18">
+        <f t="shared" si="1"/>
+        <v>179.7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="20">
+        <v>44208</v>
+      </c>
+      <c r="D109" s="19">
+        <v>2</v>
+      </c>
+      <c r="E109" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F109" s="18">
+        <f t="shared" si="1"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="20">
+        <v>44208</v>
+      </c>
+      <c r="D110" s="19">
+        <v>2</v>
+      </c>
+      <c r="E110" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F110" s="18">
+        <f t="shared" si="1"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="20">
+        <v>44208</v>
+      </c>
+      <c r="D111" s="19">
+        <v>1</v>
+      </c>
+      <c r="E111" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F111" s="18">
+        <f t="shared" si="1"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="20">
+        <v>44208</v>
+      </c>
+      <c r="D112" s="19">
+        <v>2</v>
+      </c>
+      <c r="E112" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F112" s="18">
+        <f t="shared" si="1"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="20">
+        <v>44209</v>
+      </c>
+      <c r="D113" s="19">
+        <v>2</v>
+      </c>
+      <c r="E113" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F113" s="18">
+        <f t="shared" si="1"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" s="20">
+        <v>44209</v>
+      </c>
+      <c r="D114" s="19">
+        <v>1</v>
+      </c>
+      <c r="E114" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F114" s="18">
+        <f t="shared" si="1"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" s="20">
+        <v>44209</v>
+      </c>
+      <c r="D115" s="19">
+        <v>2</v>
+      </c>
+      <c r="E115" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F115" s="18">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="20">
+        <v>44209</v>
+      </c>
+      <c r="D116" s="19">
+        <v>3</v>
+      </c>
+      <c r="E116" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F116" s="18">
+        <f t="shared" si="1"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="20">
+        <v>44209</v>
+      </c>
+      <c r="D117" s="19">
+        <v>1</v>
+      </c>
+      <c r="E117" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F117" s="18">
+        <f t="shared" si="1"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="20">
+        <v>44209</v>
+      </c>
+      <c r="D118" s="19">
+        <v>1</v>
+      </c>
+      <c r="E118" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F118" s="18">
+        <f t="shared" si="1"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="20">
+        <v>44209</v>
+      </c>
+      <c r="D119" s="19">
+        <v>1</v>
+      </c>
+      <c r="E119" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F119" s="18">
+        <f t="shared" si="1"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="20">
+        <v>44209</v>
+      </c>
+      <c r="D120" s="19">
+        <v>1</v>
+      </c>
+      <c r="E120" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F120" s="18">
+        <f t="shared" si="1"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="20">
+        <v>44209</v>
+      </c>
+      <c r="D121" s="19">
+        <v>1</v>
+      </c>
+      <c r="E121" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F121" s="18">
+        <f t="shared" si="1"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="20">
+        <v>44209</v>
+      </c>
+      <c r="D122" s="19">
+        <v>1</v>
+      </c>
+      <c r="E122" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F122" s="18">
+        <f t="shared" si="1"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="20">
+        <v>44209</v>
+      </c>
+      <c r="D123" s="19">
+        <v>1</v>
+      </c>
+      <c r="E123" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F123" s="18">
+        <f t="shared" si="1"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" s="20">
+        <v>44209</v>
+      </c>
+      <c r="D124" s="19">
+        <v>1</v>
+      </c>
+      <c r="E124" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F124" s="18">
+        <f t="shared" si="1"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="20">
+        <v>44209</v>
+      </c>
+      <c r="D125" s="19">
+        <v>1</v>
+      </c>
+      <c r="E125" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F125" s="18">
+        <f t="shared" si="1"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="20">
+        <v>44209</v>
+      </c>
+      <c r="D126" s="19">
+        <v>1</v>
+      </c>
+      <c r="E126" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F126" s="18">
+        <f t="shared" si="1"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" s="20">
+        <v>44210</v>
+      </c>
+      <c r="D127" s="19">
+        <v>1</v>
+      </c>
+      <c r="E127" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F127" s="18">
+        <f t="shared" si="1"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="20">
+        <v>44210</v>
+      </c>
+      <c r="D128" s="19">
+        <v>3</v>
+      </c>
+      <c r="E128" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F128" s="18">
+        <f t="shared" si="1"/>
+        <v>179.7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="20">
+        <v>44210</v>
+      </c>
+      <c r="D129" s="19">
+        <v>1</v>
+      </c>
+      <c r="E129" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F129" s="18">
+        <f t="shared" si="1"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" s="20">
+        <v>44210</v>
+      </c>
+      <c r="D130" s="19">
+        <v>2</v>
+      </c>
+      <c r="E130" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F130" s="18">
+        <f t="shared" ref="F130:F193" si="2">E130*D130</f>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="20">
+        <v>44210</v>
+      </c>
+      <c r="D131" s="19">
+        <v>1</v>
+      </c>
+      <c r="E131" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F131" s="18">
+        <f t="shared" si="2"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="20">
+        <v>44210</v>
+      </c>
+      <c r="D132" s="19">
+        <v>1</v>
+      </c>
+      <c r="E132" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F132" s="18">
+        <f t="shared" si="2"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="20">
+        <v>44210</v>
+      </c>
+      <c r="D133" s="19">
+        <v>3</v>
+      </c>
+      <c r="E133" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F133" s="18">
+        <f t="shared" si="2"/>
+        <v>119.69999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="20">
+        <v>44210</v>
+      </c>
+      <c r="D134" s="19">
+        <v>2</v>
+      </c>
+      <c r="E134" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F134" s="18">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" s="20">
+        <v>44210</v>
+      </c>
+      <c r="D135" s="19">
+        <v>2</v>
+      </c>
+      <c r="E135" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F135" s="18">
+        <f t="shared" si="2"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" s="20">
+        <v>44210</v>
+      </c>
+      <c r="D136" s="19">
+        <v>3</v>
+      </c>
+      <c r="E136" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F136" s="18">
+        <f t="shared" si="2"/>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="20">
+        <v>44211</v>
+      </c>
+      <c r="D137" s="19">
+        <v>1</v>
+      </c>
+      <c r="E137" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F137" s="18">
+        <f t="shared" si="2"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" s="20">
+        <v>44211</v>
+      </c>
+      <c r="D138" s="19">
+        <v>1</v>
+      </c>
+      <c r="E138" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F138" s="18">
+        <f t="shared" si="2"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" s="20">
+        <v>44211</v>
+      </c>
+      <c r="D139" s="19">
+        <v>1</v>
+      </c>
+      <c r="E139" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F139" s="18">
+        <f t="shared" si="2"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" s="20">
+        <v>44211</v>
+      </c>
+      <c r="D140" s="19">
+        <v>1</v>
+      </c>
+      <c r="E140" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F140" s="18">
+        <f t="shared" si="2"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" s="20">
+        <v>44211</v>
+      </c>
+      <c r="D141" s="19">
+        <v>1</v>
+      </c>
+      <c r="E141" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F141" s="18">
+        <f t="shared" si="2"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" s="20">
+        <v>44211</v>
+      </c>
+      <c r="D142" s="19">
+        <v>1</v>
+      </c>
+      <c r="E142" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F142" s="18">
+        <f t="shared" si="2"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" s="20">
+        <v>44211</v>
+      </c>
+      <c r="D143" s="19">
+        <v>1</v>
+      </c>
+      <c r="E143" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F143" s="18">
+        <f t="shared" si="2"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" s="20">
+        <v>44211</v>
+      </c>
+      <c r="D144" s="19">
+        <v>4</v>
+      </c>
+      <c r="E144" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F144" s="18">
+        <f t="shared" si="2"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" s="20">
+        <v>44211</v>
+      </c>
+      <c r="D145" s="19">
+        <v>2</v>
+      </c>
+      <c r="E145" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F145" s="18">
+        <f t="shared" si="2"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" s="20">
+        <v>44211</v>
+      </c>
+      <c r="D146" s="19">
+        <v>1</v>
+      </c>
+      <c r="E146" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F146" s="18">
+        <f t="shared" si="2"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" s="20">
+        <v>44212</v>
+      </c>
+      <c r="D147" s="19">
+        <v>1</v>
+      </c>
+      <c r="E147" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F147" s="18">
+        <f t="shared" si="2"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="20">
+        <v>44212</v>
+      </c>
+      <c r="D148" s="19">
+        <v>3</v>
+      </c>
+      <c r="E148" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F148" s="18">
+        <f t="shared" si="2"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" s="20">
+        <v>44212</v>
+      </c>
+      <c r="D149" s="19">
+        <v>1</v>
+      </c>
+      <c r="E149" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F149" s="18">
+        <f t="shared" si="2"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" s="20">
+        <v>44212</v>
+      </c>
+      <c r="D150" s="19">
+        <v>3</v>
+      </c>
+      <c r="E150" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F150" s="18">
+        <f t="shared" si="2"/>
+        <v>179.7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="20">
+        <v>44212</v>
+      </c>
+      <c r="D151" s="19">
+        <v>2</v>
+      </c>
+      <c r="E151" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F151" s="18">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" s="20">
+        <v>44212</v>
+      </c>
+      <c r="D152" s="19">
+        <v>3</v>
+      </c>
+      <c r="E152" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F152" s="18">
+        <f t="shared" si="2"/>
+        <v>599.70000000000005</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="20">
+        <v>44212</v>
+      </c>
+      <c r="D153" s="19">
+        <v>2</v>
+      </c>
+      <c r="E153" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F153" s="18">
+        <f t="shared" si="2"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" s="20">
+        <v>44212</v>
+      </c>
+      <c r="D154" s="19">
+        <v>1</v>
+      </c>
+      <c r="E154" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F154" s="18">
+        <f t="shared" si="2"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="20">
+        <v>44212</v>
+      </c>
+      <c r="D155" s="19">
+        <v>2</v>
+      </c>
+      <c r="E155" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F155" s="18">
+        <f t="shared" si="2"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" s="20">
+        <v>44212</v>
+      </c>
+      <c r="D156" s="19">
+        <v>3</v>
+      </c>
+      <c r="E156" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F156" s="18">
+        <f t="shared" si="2"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" s="20">
+        <v>44212</v>
+      </c>
+      <c r="D157" s="19">
+        <v>1</v>
+      </c>
+      <c r="E157" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F157" s="18">
+        <f t="shared" si="2"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="20">
+        <v>44212</v>
+      </c>
+      <c r="D158" s="19">
+        <v>1</v>
+      </c>
+      <c r="E158" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F158" s="18">
+        <f t="shared" si="2"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="20">
+        <v>44213</v>
+      </c>
+      <c r="D159" s="19">
+        <v>2</v>
+      </c>
+      <c r="E159" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F159" s="18">
+        <f t="shared" si="2"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" s="20">
+        <v>44213</v>
+      </c>
+      <c r="D160" s="19">
+        <v>1</v>
+      </c>
+      <c r="E160" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F160" s="18">
+        <f t="shared" si="2"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" s="20">
+        <v>44213</v>
+      </c>
+      <c r="D161" s="19">
+        <v>3</v>
+      </c>
+      <c r="E161" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F161" s="18">
+        <f t="shared" si="2"/>
+        <v>599.70000000000005</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" s="20">
+        <v>44213</v>
+      </c>
+      <c r="D162" s="19">
+        <v>1</v>
+      </c>
+      <c r="E162" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F162" s="18">
+        <f t="shared" si="2"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" s="20">
+        <v>44213</v>
+      </c>
+      <c r="D163" s="19">
+        <v>1</v>
+      </c>
+      <c r="E163" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F163" s="18">
+        <f t="shared" si="2"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="20">
+        <v>44213</v>
+      </c>
+      <c r="D164" s="19">
+        <v>1</v>
+      </c>
+      <c r="E164" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F164" s="18">
+        <f t="shared" si="2"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" s="20">
+        <v>44213</v>
+      </c>
+      <c r="D165" s="19">
+        <v>1</v>
+      </c>
+      <c r="E165" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F165" s="18">
+        <f t="shared" si="2"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" s="20">
+        <v>44213</v>
+      </c>
+      <c r="D166" s="19">
+        <v>1</v>
+      </c>
+      <c r="E166" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F166" s="18">
+        <f t="shared" si="2"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B167" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" s="20">
+        <v>44213</v>
+      </c>
+      <c r="D167" s="19">
+        <v>1</v>
+      </c>
+      <c r="E167" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F167" s="18">
+        <f t="shared" si="2"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="20">
+        <v>44213</v>
+      </c>
+      <c r="D168" s="19">
+        <v>1</v>
+      </c>
+      <c r="E168" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F168" s="18">
+        <f t="shared" si="2"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" s="20">
+        <v>44213</v>
+      </c>
+      <c r="D169" s="19">
+        <v>3</v>
+      </c>
+      <c r="E169" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F169" s="18">
+        <f t="shared" si="2"/>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" s="20">
+        <v>44214</v>
+      </c>
+      <c r="D170" s="19">
+        <v>1</v>
+      </c>
+      <c r="E170" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F170" s="18">
+        <f t="shared" si="2"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="20">
+        <v>44214</v>
+      </c>
+      <c r="D171" s="19">
+        <v>1</v>
+      </c>
+      <c r="E171" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F171" s="18">
+        <f t="shared" si="2"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="20">
+        <v>44214</v>
+      </c>
+      <c r="D172" s="19">
+        <v>2</v>
+      </c>
+      <c r="E172" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F172" s="18">
+        <f t="shared" si="2"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" s="20">
+        <v>44214</v>
+      </c>
+      <c r="D173" s="19">
+        <v>2</v>
+      </c>
+      <c r="E173" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F173" s="18">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B174" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C174" s="20">
+        <v>44214</v>
+      </c>
+      <c r="D174" s="19">
+        <v>1</v>
+      </c>
+      <c r="E174" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F174" s="18">
+        <f t="shared" si="2"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C175" s="20">
+        <v>44214</v>
+      </c>
+      <c r="D175" s="19">
+        <v>1</v>
+      </c>
+      <c r="E175" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F175" s="18">
+        <f t="shared" si="2"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B176" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" s="20">
+        <v>44214</v>
+      </c>
+      <c r="D176" s="19">
+        <v>3</v>
+      </c>
+      <c r="E176" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F176" s="18">
+        <f t="shared" si="2"/>
+        <v>599.70000000000005</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" s="20">
+        <v>44214</v>
+      </c>
+      <c r="D177" s="19">
+        <v>1</v>
+      </c>
+      <c r="E177" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F177" s="18">
+        <f t="shared" si="2"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C178" s="20">
+        <v>44214</v>
+      </c>
+      <c r="D178" s="19">
+        <v>1</v>
+      </c>
+      <c r="E178" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F178" s="18">
+        <f t="shared" si="2"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C179" s="20">
+        <v>44214</v>
+      </c>
+      <c r="D179" s="19">
+        <v>3</v>
+      </c>
+      <c r="E179" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F179" s="18">
+        <f t="shared" si="2"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="20">
+        <v>44214</v>
+      </c>
+      <c r="D180" s="19">
+        <v>1</v>
+      </c>
+      <c r="E180" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F180" s="18">
+        <f t="shared" si="2"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B181" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" s="20">
+        <v>44214</v>
+      </c>
+      <c r="D181" s="19">
+        <v>1</v>
+      </c>
+      <c r="E181" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F181" s="18">
+        <f t="shared" si="2"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C182" s="20">
+        <v>44215</v>
+      </c>
+      <c r="D182" s="19">
+        <v>2</v>
+      </c>
+      <c r="E182" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F182" s="18">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" s="20">
+        <v>44215</v>
+      </c>
+      <c r="D183" s="19">
+        <v>1</v>
+      </c>
+      <c r="E183" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F183" s="18">
+        <f t="shared" si="2"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" s="20">
+        <v>44215</v>
+      </c>
+      <c r="D184" s="19">
+        <v>2</v>
+      </c>
+      <c r="E184" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F184" s="18">
+        <f t="shared" si="2"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" s="20">
+        <v>44215</v>
+      </c>
+      <c r="D185" s="19">
+        <v>2</v>
+      </c>
+      <c r="E185" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F185" s="18">
+        <f t="shared" si="2"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" s="20">
+        <v>44215</v>
+      </c>
+      <c r="D186" s="19">
+        <v>3</v>
+      </c>
+      <c r="E186" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F186" s="18">
+        <f t="shared" si="2"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B187" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C187" s="20">
+        <v>44215</v>
+      </c>
+      <c r="D187" s="19">
+        <v>1</v>
+      </c>
+      <c r="E187" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F187" s="18">
+        <f t="shared" si="2"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B188" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" s="20">
+        <v>44215</v>
+      </c>
+      <c r="D188" s="19">
+        <v>3</v>
+      </c>
+      <c r="E188" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F188" s="18">
+        <f t="shared" si="2"/>
+        <v>599.70000000000005</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" s="20">
+        <v>44215</v>
+      </c>
+      <c r="D189" s="19">
+        <v>3</v>
+      </c>
+      <c r="E189" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F189" s="18">
+        <f t="shared" si="2"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C190" s="20">
+        <v>44215</v>
+      </c>
+      <c r="D190" s="19">
+        <v>1</v>
+      </c>
+      <c r="E190" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F190" s="18">
+        <f t="shared" si="2"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B191" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191" s="20">
+        <v>44215</v>
+      </c>
+      <c r="D191" s="19">
+        <v>3</v>
+      </c>
+      <c r="E191" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F191" s="18">
+        <f t="shared" si="2"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C192" s="20">
+        <v>44216</v>
+      </c>
+      <c r="D192" s="19">
+        <v>1</v>
+      </c>
+      <c r="E192" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F192" s="18">
+        <f t="shared" si="2"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193" s="20">
+        <v>44216</v>
+      </c>
+      <c r="D193" s="19">
+        <v>1</v>
+      </c>
+      <c r="E193" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F193" s="18">
+        <f t="shared" si="2"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B194" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" s="20">
+        <v>44216</v>
+      </c>
+      <c r="D194" s="19">
+        <v>2</v>
+      </c>
+      <c r="E194" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F194" s="18">
+        <f t="shared" ref="F194:F257" si="3">E194*D194</f>
+        <v>280.8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="20">
+        <v>44216</v>
+      </c>
+      <c r="D195" s="19">
+        <v>1</v>
+      </c>
+      <c r="E195" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F195" s="18">
+        <f t="shared" si="3"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B196" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C196" s="20">
+        <v>44216</v>
+      </c>
+      <c r="D196" s="19">
+        <v>1</v>
+      </c>
+      <c r="E196" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F196" s="18">
+        <f t="shared" si="3"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B197" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="20">
+        <v>44216</v>
+      </c>
+      <c r="D197" s="19">
+        <v>1</v>
+      </c>
+      <c r="E197" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F197" s="18">
+        <f t="shared" si="3"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" s="20">
+        <v>44216</v>
+      </c>
+      <c r="D198" s="19">
+        <v>1</v>
+      </c>
+      <c r="E198" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F198" s="18">
+        <f t="shared" si="3"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B199" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" s="20">
+        <v>44216</v>
+      </c>
+      <c r="D199" s="19">
+        <v>1</v>
+      </c>
+      <c r="E199" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F199" s="18">
+        <f t="shared" si="3"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C200" s="20">
+        <v>44216</v>
+      </c>
+      <c r="D200" s="19">
+        <v>3</v>
+      </c>
+      <c r="E200" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F200" s="18">
+        <f t="shared" si="3"/>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" s="20">
+        <v>44216</v>
+      </c>
+      <c r="D201" s="19">
+        <v>1</v>
+      </c>
+      <c r="E201" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F201" s="18">
+        <f t="shared" si="3"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B202" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C202" s="20">
+        <v>44216</v>
+      </c>
+      <c r="D202" s="19">
+        <v>1</v>
+      </c>
+      <c r="E202" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F202" s="18">
+        <f t="shared" si="3"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C203" s="20">
+        <v>44217</v>
+      </c>
+      <c r="D203" s="19">
+        <v>1</v>
+      </c>
+      <c r="E203" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F203" s="18">
+        <f t="shared" si="3"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B204" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" s="20">
+        <v>44217</v>
+      </c>
+      <c r="D204" s="19">
+        <v>1</v>
+      </c>
+      <c r="E204" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F204" s="18">
+        <f t="shared" si="3"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" s="20">
+        <v>44217</v>
+      </c>
+      <c r="D205" s="19">
+        <v>1</v>
+      </c>
+      <c r="E205" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F205" s="18">
+        <f t="shared" si="3"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B206" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" s="20">
+        <v>44217</v>
+      </c>
+      <c r="D206" s="19">
+        <v>2</v>
+      </c>
+      <c r="E206" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F206" s="18">
+        <f t="shared" si="3"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" s="20">
+        <v>44217</v>
+      </c>
+      <c r="D207" s="19">
+        <v>1</v>
+      </c>
+      <c r="E207" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F207" s="18">
+        <f t="shared" si="3"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B208" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" s="20">
+        <v>44217</v>
+      </c>
+      <c r="D208" s="19">
+        <v>1</v>
+      </c>
+      <c r="E208" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F208" s="18">
+        <f t="shared" si="3"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B209" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C209" s="20">
+        <v>44217</v>
+      </c>
+      <c r="D209" s="19">
+        <v>1</v>
+      </c>
+      <c r="E209" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F209" s="18">
+        <f t="shared" si="3"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="20">
+        <v>44217</v>
+      </c>
+      <c r="D210" s="19">
+        <v>2</v>
+      </c>
+      <c r="E210" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F210" s="18">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B211" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C211" s="20">
+        <v>44217</v>
+      </c>
+      <c r="D211" s="19">
+        <v>1</v>
+      </c>
+      <c r="E211" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F211" s="18">
+        <f t="shared" si="3"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B212" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C212" s="20">
+        <v>44217</v>
+      </c>
+      <c r="D212" s="19">
+        <v>1</v>
+      </c>
+      <c r="E212" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F212" s="18">
+        <f t="shared" si="3"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B213" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C213" s="20">
+        <v>44218</v>
+      </c>
+      <c r="D213" s="19">
+        <v>1</v>
+      </c>
+      <c r="E213" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F213" s="18">
+        <f t="shared" si="3"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B214" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C214" s="20">
+        <v>44218</v>
+      </c>
+      <c r="D214" s="19">
+        <v>1</v>
+      </c>
+      <c r="E214" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F214" s="18">
+        <f t="shared" si="3"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B215" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C215" s="20">
+        <v>44218</v>
+      </c>
+      <c r="D215" s="19">
+        <v>3</v>
+      </c>
+      <c r="E215" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F215" s="18">
+        <f t="shared" si="3"/>
+        <v>599.70000000000005</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B216" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C216" s="20">
+        <v>44218</v>
+      </c>
+      <c r="D216" s="19">
+        <v>1</v>
+      </c>
+      <c r="E216" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F216" s="18">
+        <f t="shared" si="3"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B217" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C217" s="20">
+        <v>44218</v>
+      </c>
+      <c r="D217" s="19">
+        <v>1</v>
+      </c>
+      <c r="E217" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F217" s="18">
+        <f t="shared" si="3"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B218" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C218" s="20">
+        <v>44218</v>
+      </c>
+      <c r="D218" s="19">
+        <v>3</v>
+      </c>
+      <c r="E218" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F218" s="18">
+        <f t="shared" si="3"/>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B219" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" s="20">
+        <v>44218</v>
+      </c>
+      <c r="D219" s="19">
+        <v>1</v>
+      </c>
+      <c r="E219" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F219" s="18">
+        <f t="shared" si="3"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B220" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C220" s="20">
+        <v>44219</v>
+      </c>
+      <c r="D220" s="19">
+        <v>1</v>
+      </c>
+      <c r="E220" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F220" s="18">
+        <f t="shared" si="3"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B221" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221" s="20">
+        <v>44219</v>
+      </c>
+      <c r="D221" s="19">
+        <v>2</v>
+      </c>
+      <c r="E221" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F221" s="18">
+        <f t="shared" si="3"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" s="20">
+        <v>44219</v>
+      </c>
+      <c r="D222" s="19">
+        <v>1</v>
+      </c>
+      <c r="E222" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F222" s="18">
+        <f t="shared" si="3"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B223" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C223" s="20">
+        <v>44219</v>
+      </c>
+      <c r="D223" s="19">
+        <v>2</v>
+      </c>
+      <c r="E223" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F223" s="18">
+        <f t="shared" si="3"/>
+        <v>280.8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B224" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C224" s="20">
+        <v>44219</v>
+      </c>
+      <c r="D224" s="19">
+        <v>3</v>
+      </c>
+      <c r="E224" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F224" s="18">
+        <f t="shared" si="3"/>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B225" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225" s="20">
+        <v>44219</v>
+      </c>
+      <c r="D225" s="19">
+        <v>1</v>
+      </c>
+      <c r="E225" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F225" s="18">
+        <f t="shared" si="3"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B226" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C226" s="20">
+        <v>44219</v>
+      </c>
+      <c r="D226" s="19">
+        <v>1</v>
+      </c>
+      <c r="E226" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F226" s="18">
+        <f t="shared" si="3"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B227" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C227" s="20">
+        <v>44219</v>
+      </c>
+      <c r="D227" s="19">
+        <v>1</v>
+      </c>
+      <c r="E227" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F227" s="18">
+        <f t="shared" si="3"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B228" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C228" s="20">
+        <v>44219</v>
+      </c>
+      <c r="D228" s="19">
+        <v>1</v>
+      </c>
+      <c r="E228" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F228" s="18">
+        <f t="shared" si="3"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B229" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C229" s="20">
+        <v>44220</v>
+      </c>
+      <c r="D229" s="19">
+        <v>1</v>
+      </c>
+      <c r="E229" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F229" s="18">
+        <f t="shared" si="3"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B230" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C230" s="20">
+        <v>44220</v>
+      </c>
+      <c r="D230" s="19">
+        <v>3</v>
+      </c>
+      <c r="E230" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F230" s="18">
+        <f t="shared" si="3"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B231" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C231" s="20">
+        <v>44220</v>
+      </c>
+      <c r="D231" s="19">
+        <v>1</v>
+      </c>
+      <c r="E231" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F231" s="18">
+        <f t="shared" si="3"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B232" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C232" s="20">
+        <v>44220</v>
+      </c>
+      <c r="D232" s="19">
+        <v>1</v>
+      </c>
+      <c r="E232" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F232" s="18">
+        <f t="shared" si="3"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C233" s="20">
+        <v>44220</v>
+      </c>
+      <c r="D233" s="19">
+        <v>3</v>
+      </c>
+      <c r="E233" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F233" s="18">
+        <f t="shared" si="3"/>
+        <v>599.70000000000005</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B234" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C234" s="20">
+        <v>44220</v>
+      </c>
+      <c r="D234" s="19">
+        <v>1</v>
+      </c>
+      <c r="E234" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F234" s="18">
+        <f t="shared" si="3"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B235" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C235" s="20">
+        <v>44220</v>
+      </c>
+      <c r="D235" s="19">
+        <v>1</v>
+      </c>
+      <c r="E235" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F235" s="18">
+        <f t="shared" si="3"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B236" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" s="20">
+        <v>44220</v>
+      </c>
+      <c r="D236" s="19">
+        <v>1</v>
+      </c>
+      <c r="E236" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F236" s="18">
+        <f t="shared" si="3"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B237" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C237" s="20">
+        <v>44220</v>
+      </c>
+      <c r="D237" s="19">
+        <v>1</v>
+      </c>
+      <c r="E237" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F237" s="18">
+        <f t="shared" si="3"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B238" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C238" s="20">
+        <v>44221</v>
+      </c>
+      <c r="D238" s="19">
+        <v>1</v>
+      </c>
+      <c r="E238" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F238" s="18">
+        <f t="shared" si="3"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B239" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C239" s="20">
+        <v>44221</v>
+      </c>
+      <c r="D239" s="19">
+        <v>1</v>
+      </c>
+      <c r="E239" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F239" s="18">
+        <f t="shared" si="3"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B240" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C240" s="20">
+        <v>44221</v>
+      </c>
+      <c r="D240" s="19">
+        <v>1</v>
+      </c>
+      <c r="E240" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F240" s="18">
+        <f t="shared" si="3"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B241" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C241" s="20">
+        <v>44221</v>
+      </c>
+      <c r="D241" s="19">
+        <v>3</v>
+      </c>
+      <c r="E241" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F241" s="18">
+        <f t="shared" si="3"/>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B242" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242" s="20">
+        <v>44221</v>
+      </c>
+      <c r="D242" s="19">
+        <v>1</v>
+      </c>
+      <c r="E242" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F242" s="18">
+        <f t="shared" si="3"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B243" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C243" s="20">
+        <v>44221</v>
+      </c>
+      <c r="D243" s="19">
+        <v>2</v>
+      </c>
+      <c r="E243" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F243" s="18">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B244" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C244" s="20">
+        <v>44221</v>
+      </c>
+      <c r="D244" s="19">
+        <v>1</v>
+      </c>
+      <c r="E244" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F244" s="18">
+        <f t="shared" si="3"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B245" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" s="20">
+        <v>44221</v>
+      </c>
+      <c r="D245" s="19">
+        <v>1</v>
+      </c>
+      <c r="E245" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F245" s="18">
+        <f t="shared" si="3"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B246" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C246" s="20">
+        <v>44221</v>
+      </c>
+      <c r="D246" s="19">
+        <v>1</v>
+      </c>
+      <c r="E246" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F246" s="18">
+        <f t="shared" si="3"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B247" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C247" s="20">
+        <v>44221</v>
+      </c>
+      <c r="D247" s="19">
+        <v>3</v>
+      </c>
+      <c r="E247" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F247" s="18">
+        <f t="shared" si="3"/>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B248" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C248" s="20">
+        <v>44221</v>
+      </c>
+      <c r="D248" s="19">
+        <v>5</v>
+      </c>
+      <c r="E248" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F248" s="18">
+        <f t="shared" si="3"/>
+        <v>299.5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B249" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249" s="20">
+        <v>44222</v>
+      </c>
+      <c r="D249" s="19">
+        <v>3</v>
+      </c>
+      <c r="E249" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F249" s="18">
+        <f t="shared" si="3"/>
+        <v>119.69999999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B250" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C250" s="20">
+        <v>44222</v>
+      </c>
+      <c r="D250" s="19">
+        <v>1</v>
+      </c>
+      <c r="E250" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F250" s="18">
+        <f t="shared" si="3"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B251" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C251" s="20">
+        <v>44222</v>
+      </c>
+      <c r="D251" s="19">
+        <v>2</v>
+      </c>
+      <c r="E251" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F251" s="18">
+        <f t="shared" si="3"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B252" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C252" s="20">
+        <v>44222</v>
+      </c>
+      <c r="D252" s="19">
+        <v>1</v>
+      </c>
+      <c r="E252" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F252" s="18">
+        <f t="shared" si="3"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B253" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C253" s="20">
+        <v>44222</v>
+      </c>
+      <c r="D253" s="19">
+        <v>2</v>
+      </c>
+      <c r="E253" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F253" s="18">
+        <f t="shared" si="3"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B254" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C254" s="20">
+        <v>44222</v>
+      </c>
+      <c r="D254" s="19">
+        <v>1</v>
+      </c>
+      <c r="E254" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F254" s="18">
+        <f t="shared" si="3"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B255" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C255" s="20">
+        <v>44222</v>
+      </c>
+      <c r="D255" s="19">
+        <v>1</v>
+      </c>
+      <c r="E255" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F255" s="18">
+        <f t="shared" si="3"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B256" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C256" s="20">
+        <v>44222</v>
+      </c>
+      <c r="D256" s="19">
+        <v>1</v>
+      </c>
+      <c r="E256" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F256" s="18">
+        <f t="shared" si="3"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B257" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C257" s="20">
+        <v>44222</v>
+      </c>
+      <c r="D257" s="19">
+        <v>1</v>
+      </c>
+      <c r="E257" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F257" s="18">
+        <f t="shared" si="3"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B258" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C258" s="20">
+        <v>44222</v>
+      </c>
+      <c r="D258" s="19">
+        <v>1</v>
+      </c>
+      <c r="E258" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F258" s="18">
+        <f t="shared" ref="F258:F297" si="4">E258*D258</f>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B259" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C259" s="20">
+        <v>44222</v>
+      </c>
+      <c r="D259" s="19">
+        <v>3</v>
+      </c>
+      <c r="E259" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F259" s="18">
+        <f t="shared" si="4"/>
+        <v>599.70000000000005</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B260" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C260" s="20">
+        <v>44223</v>
+      </c>
+      <c r="D260" s="19">
+        <v>2</v>
+      </c>
+      <c r="E260" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F260" s="18">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B261" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C261" s="20">
+        <v>44223</v>
+      </c>
+      <c r="D261" s="19">
+        <v>2</v>
+      </c>
+      <c r="E261" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F261" s="18">
+        <f t="shared" si="4"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B262" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C262" s="20">
+        <v>44223</v>
+      </c>
+      <c r="D262" s="19">
+        <v>2</v>
+      </c>
+      <c r="E262" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F262" s="18">
+        <f t="shared" si="4"/>
+        <v>280.8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B263" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263" s="20">
+        <v>44223</v>
+      </c>
+      <c r="D263" s="19">
+        <v>1</v>
+      </c>
+      <c r="E263" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F263" s="18">
+        <f t="shared" si="4"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B264" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C264" s="20">
+        <v>44223</v>
+      </c>
+      <c r="D264" s="19">
+        <v>1</v>
+      </c>
+      <c r="E264" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F264" s="18">
+        <f t="shared" si="4"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B265" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C265" s="20">
+        <v>44223</v>
+      </c>
+      <c r="D265" s="19">
+        <v>1</v>
+      </c>
+      <c r="E265" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F265" s="18">
+        <f t="shared" si="4"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B266" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C266" s="20">
+        <v>44223</v>
+      </c>
+      <c r="D266" s="19">
+        <v>1</v>
+      </c>
+      <c r="E266" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F266" s="18">
+        <f t="shared" si="4"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B267" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267" s="20">
+        <v>44223</v>
+      </c>
+      <c r="D267" s="19">
+        <v>2</v>
+      </c>
+      <c r="E267" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F267" s="18">
+        <f t="shared" si="4"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B268" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C268" s="20">
+        <v>44223</v>
+      </c>
+      <c r="D268" s="19">
+        <v>3</v>
+      </c>
+      <c r="E268" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F268" s="18">
+        <f t="shared" si="4"/>
+        <v>421.20000000000005</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B269" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C269" s="20">
+        <v>44224</v>
+      </c>
+      <c r="D269" s="19">
+        <v>1</v>
+      </c>
+      <c r="E269" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F269" s="18">
+        <f t="shared" si="4"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B270" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C270" s="20">
+        <v>44224</v>
+      </c>
+      <c r="D270" s="19">
+        <v>1</v>
+      </c>
+      <c r="E270" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F270" s="18">
+        <f t="shared" si="4"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B271" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C271" s="20">
+        <v>44224</v>
+      </c>
+      <c r="D271" s="19">
+        <v>1</v>
+      </c>
+      <c r="E271" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F271" s="18">
+        <f t="shared" si="4"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B272" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C272" s="20">
+        <v>44224</v>
+      </c>
+      <c r="D272" s="19">
+        <v>1</v>
+      </c>
+      <c r="E272" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F272" s="18">
+        <f t="shared" si="4"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B273" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C273" s="20">
+        <v>44224</v>
+      </c>
+      <c r="D273" s="19">
+        <v>1</v>
+      </c>
+      <c r="E273" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F273" s="18">
+        <f t="shared" si="4"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B274" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C274" s="20">
+        <v>44224</v>
+      </c>
+      <c r="D274" s="19">
+        <v>1</v>
+      </c>
+      <c r="E274" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F274" s="18">
+        <f t="shared" si="4"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B275" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C275" s="20">
+        <v>44224</v>
+      </c>
+      <c r="D275" s="19">
+        <v>3</v>
+      </c>
+      <c r="E275" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F275" s="18">
+        <f t="shared" si="4"/>
+        <v>179.7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B276" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C276" s="20">
+        <v>44224</v>
+      </c>
+      <c r="D276" s="19">
+        <v>1</v>
+      </c>
+      <c r="E276" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F276" s="18">
+        <f t="shared" si="4"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B277" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C277" s="20">
+        <v>44224</v>
+      </c>
+      <c r="D277" s="19">
+        <v>1</v>
+      </c>
+      <c r="E277" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F277" s="18">
+        <f t="shared" si="4"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B278" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C278" s="20">
+        <v>44225</v>
+      </c>
+      <c r="D278" s="19">
+        <v>1</v>
+      </c>
+      <c r="E278" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F278" s="18">
+        <f t="shared" si="4"/>
+        <v>199.9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B279" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C279" s="20">
+        <v>44225</v>
+      </c>
+      <c r="D279" s="19">
+        <v>1</v>
+      </c>
+      <c r="E279" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F279" s="18">
+        <f t="shared" si="4"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B280" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C280" s="20">
+        <v>44225</v>
+      </c>
+      <c r="D280" s="19">
+        <v>2</v>
+      </c>
+      <c r="E280" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F280" s="18">
+        <f t="shared" si="4"/>
+        <v>399.8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B281" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C281" s="20">
+        <v>44225</v>
+      </c>
+      <c r="D281" s="19">
+        <v>2</v>
+      </c>
+      <c r="E281" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F281" s="18">
+        <f t="shared" si="4"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B282" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C282" s="20">
+        <v>44225</v>
+      </c>
+      <c r="D282" s="19">
+        <v>1</v>
+      </c>
+      <c r="E282" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F282" s="18">
+        <f t="shared" si="4"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B283" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C283" s="20">
+        <v>44225</v>
+      </c>
+      <c r="D283" s="19">
+        <v>1</v>
+      </c>
+      <c r="E283" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F283" s="18">
+        <f t="shared" si="4"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B284" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C284" s="20">
+        <v>44225</v>
+      </c>
+      <c r="D284" s="19">
+        <v>3</v>
+      </c>
+      <c r="E284" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F284" s="18">
+        <f t="shared" si="4"/>
+        <v>179.7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B285" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C285" s="20">
+        <v>44225</v>
+      </c>
+      <c r="D285" s="19">
+        <v>1</v>
+      </c>
+      <c r="E285" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F285" s="18">
+        <f t="shared" si="4"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B286" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C286" s="20">
+        <v>44225</v>
+      </c>
+      <c r="D286" s="19">
+        <v>2</v>
+      </c>
+      <c r="E286" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F286" s="18">
+        <f t="shared" si="4"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B287" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C287" s="20">
+        <v>44225</v>
+      </c>
+      <c r="D287" s="19">
+        <v>1</v>
+      </c>
+      <c r="E287" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F287" s="18">
+        <f t="shared" si="4"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B288" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C288" s="20">
+        <v>44226</v>
+      </c>
+      <c r="D288" s="19">
+        <v>1</v>
+      </c>
+      <c r="E288" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F288" s="18">
+        <f t="shared" si="4"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B289" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289" s="20">
+        <v>44226</v>
+      </c>
+      <c r="D289" s="19">
+        <v>1</v>
+      </c>
+      <c r="E289" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F289" s="18">
+        <f t="shared" si="4"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B290" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C290" s="20">
+        <v>44226</v>
+      </c>
+      <c r="D290" s="19">
+        <v>2</v>
+      </c>
+      <c r="E290" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F290" s="18">
+        <f t="shared" si="4"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B291" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C291" s="20">
+        <v>44226</v>
+      </c>
+      <c r="D291" s="19">
+        <v>1</v>
+      </c>
+      <c r="E291" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F291" s="18">
+        <f t="shared" si="4"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B292" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C292" s="20">
+        <v>44226</v>
+      </c>
+      <c r="D292" s="19">
+        <v>1</v>
+      </c>
+      <c r="E292" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F292" s="18">
+        <f t="shared" si="4"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B293" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C293" s="20">
+        <v>44226</v>
+      </c>
+      <c r="D293" s="19">
+        <v>3</v>
+      </c>
+      <c r="E293" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F293" s="18">
+        <f t="shared" si="4"/>
+        <v>599.70000000000005</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B294" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C294" s="20">
+        <v>44226</v>
+      </c>
+      <c r="D294" s="19">
+        <v>1</v>
+      </c>
+      <c r="E294" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F294" s="18">
+        <f t="shared" si="4"/>
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B295" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C295" s="20">
+        <v>44226</v>
+      </c>
+      <c r="D295" s="19">
+        <v>3</v>
+      </c>
+      <c r="E295" s="18">
+        <v>127.5</v>
+      </c>
+      <c r="F295" s="18">
+        <f t="shared" si="4"/>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B296" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C296" s="20">
+        <v>44226</v>
+      </c>
+      <c r="D296" s="19">
+        <v>1</v>
+      </c>
+      <c r="E296" s="18">
+        <v>140.4</v>
+      </c>
+      <c r="F296" s="18">
+        <f t="shared" si="4"/>
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B297" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C297" s="20">
+        <v>44226</v>
+      </c>
+      <c r="D297" s="19">
+        <v>2</v>
+      </c>
+      <c r="E297" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F297" s="18">
+        <f t="shared" si="4"/>
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B298" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C298" s="20">
+        <v>44226</v>
+      </c>
+      <c r="D298" s="19">
+        <v>5</v>
+      </c>
+      <c r="E298" s="18">
+        <v>59.9</v>
+      </c>
+      <c r="F298" s="18">
+        <f>E298*D298</f>
+        <v>299.5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B299" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C299" s="20">
+        <v>44225</v>
+      </c>
+      <c r="D299" s="19">
+        <v>3</v>
+      </c>
+      <c r="E299" s="18">
+        <v>199.9</v>
+      </c>
+      <c r="F299" s="18">
+        <f>E299*D299</f>
+        <v>599.70000000000005</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B300" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300" s="20">
+        <v>44500</v>
+      </c>
+      <c r="D300" s="19">
+        <v>6</v>
+      </c>
+      <c r="E300" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="F300" s="18">
+        <f>E300*D300</f>
+        <v>239.39999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA3EEFC-4616-4D6D-9546-115B7736E325}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{6224AD17-949A-46AB-982F-3A3D8DB4783B}">
+      <formula1>$A$2:$A$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>